--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>445200</v>
+        <v>402900</v>
       </c>
       <c r="E8" s="3">
-        <v>396200</v>
+        <v>442100</v>
       </c>
       <c r="F8" s="3">
-        <v>390600</v>
+        <v>393500</v>
       </c>
       <c r="G8" s="3">
-        <v>358900</v>
+        <v>387900</v>
       </c>
       <c r="H8" s="3">
-        <v>250600</v>
+        <v>356400</v>
       </c>
       <c r="I8" s="3">
-        <v>308500</v>
+        <v>248900</v>
       </c>
       <c r="J8" s="3">
+        <v>306300</v>
+      </c>
+      <c r="K8" s="3">
         <v>331000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>159700</v>
+        <v>146500</v>
       </c>
       <c r="E9" s="3">
-        <v>143400</v>
+        <v>158600</v>
       </c>
       <c r="F9" s="3">
-        <v>146500</v>
+        <v>142400</v>
       </c>
       <c r="G9" s="3">
-        <v>124800</v>
+        <v>145500</v>
       </c>
       <c r="H9" s="3">
-        <v>103000</v>
+        <v>123900</v>
       </c>
       <c r="I9" s="3">
-        <v>138500</v>
+        <v>102300</v>
       </c>
       <c r="J9" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K9" s="3">
         <v>152600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>285500</v>
+        <v>256400</v>
       </c>
       <c r="E10" s="3">
-        <v>252800</v>
+        <v>283500</v>
       </c>
       <c r="F10" s="3">
-        <v>244100</v>
+        <v>251100</v>
       </c>
       <c r="G10" s="3">
-        <v>234100</v>
+        <v>242400</v>
       </c>
       <c r="H10" s="3">
-        <v>147600</v>
+        <v>232500</v>
       </c>
       <c r="I10" s="3">
-        <v>169900</v>
+        <v>146600</v>
       </c>
       <c r="J10" s="3">
+        <v>168800</v>
+      </c>
+      <c r="K10" s="3">
         <v>178400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>9600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>-12300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-12200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>348500</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>346100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181900</v>
+        <v>152200</v>
       </c>
       <c r="E17" s="3">
-        <v>150600</v>
+        <v>180600</v>
       </c>
       <c r="F17" s="3">
-        <v>139400</v>
+        <v>149500</v>
       </c>
       <c r="G17" s="3">
-        <v>130200</v>
+        <v>138500</v>
       </c>
       <c r="H17" s="3">
-        <v>114900</v>
+        <v>129300</v>
       </c>
       <c r="I17" s="3">
-        <v>492400</v>
+        <v>114100</v>
       </c>
       <c r="J17" s="3">
+        <v>489000</v>
+      </c>
+      <c r="K17" s="3">
         <v>165600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>263300</v>
+        <v>250700</v>
       </c>
       <c r="E18" s="3">
-        <v>245600</v>
+        <v>261500</v>
       </c>
       <c r="F18" s="3">
-        <v>251100</v>
+        <v>243900</v>
       </c>
       <c r="G18" s="3">
-        <v>228700</v>
+        <v>249400</v>
       </c>
       <c r="H18" s="3">
-        <v>135700</v>
+        <v>227100</v>
       </c>
       <c r="I18" s="3">
-        <v>-183900</v>
+        <v>134800</v>
       </c>
       <c r="J18" s="3">
+        <v>-182700</v>
+      </c>
+      <c r="K18" s="3">
         <v>165500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,80 +1042,87 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>362300</v>
+        <v>343300</v>
       </c>
       <c r="E21" s="3">
-        <v>336900</v>
+        <v>359800</v>
       </c>
       <c r="F21" s="3">
-        <v>341000</v>
+        <v>334600</v>
       </c>
       <c r="G21" s="3">
-        <v>303000</v>
+        <v>338700</v>
       </c>
       <c r="H21" s="3">
-        <v>203300</v>
+        <v>300900</v>
       </c>
       <c r="I21" s="3">
-        <v>-101300</v>
+        <v>201900</v>
       </c>
       <c r="J21" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="K21" s="3">
         <v>262700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1091,71 +1131,80 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>262500</v>
+        <v>249900</v>
       </c>
       <c r="E23" s="3">
-        <v>245400</v>
+        <v>260700</v>
       </c>
       <c r="F23" s="3">
-        <v>254200</v>
+        <v>243700</v>
       </c>
       <c r="G23" s="3">
-        <v>229700</v>
+        <v>252500</v>
       </c>
       <c r="H23" s="3">
-        <v>135800</v>
+        <v>228100</v>
       </c>
       <c r="I23" s="3">
-        <v>-184300</v>
+        <v>134900</v>
       </c>
       <c r="J23" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="K23" s="3">
         <v>167400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="E24" s="3">
-        <v>25400</v>
+        <v>37400</v>
       </c>
       <c r="F24" s="3">
-        <v>27600</v>
+        <v>25200</v>
       </c>
       <c r="G24" s="3">
-        <v>32300</v>
+        <v>27400</v>
       </c>
       <c r="H24" s="3">
-        <v>14700</v>
+        <v>32100</v>
       </c>
       <c r="I24" s="3">
-        <v>-57600</v>
+        <v>14600</v>
       </c>
       <c r="J24" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K24" s="3">
         <v>22100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>224800</v>
+        <v>211500</v>
       </c>
       <c r="E26" s="3">
-        <v>220000</v>
+        <v>223300</v>
       </c>
       <c r="F26" s="3">
-        <v>226600</v>
+        <v>218500</v>
       </c>
       <c r="G26" s="3">
-        <v>197400</v>
+        <v>225100</v>
       </c>
       <c r="H26" s="3">
-        <v>121100</v>
+        <v>196000</v>
       </c>
       <c r="I26" s="3">
-        <v>-126700</v>
+        <v>120200</v>
       </c>
       <c r="J26" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K26" s="3">
         <v>145300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>224800</v>
+        <v>211500</v>
       </c>
       <c r="E27" s="3">
-        <v>220000</v>
+        <v>223300</v>
       </c>
       <c r="F27" s="3">
-        <v>226600</v>
+        <v>218500</v>
       </c>
       <c r="G27" s="3">
-        <v>197400</v>
+        <v>225100</v>
       </c>
       <c r="H27" s="3">
-        <v>121100</v>
+        <v>196000</v>
       </c>
       <c r="I27" s="3">
-        <v>-126700</v>
+        <v>120200</v>
       </c>
       <c r="J27" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K27" s="3">
         <v>145300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>224800</v>
+        <v>211500</v>
       </c>
       <c r="E33" s="3">
-        <v>220000</v>
+        <v>223300</v>
       </c>
       <c r="F33" s="3">
-        <v>226600</v>
+        <v>218500</v>
       </c>
       <c r="G33" s="3">
-        <v>197400</v>
+        <v>225100</v>
       </c>
       <c r="H33" s="3">
-        <v>121100</v>
+        <v>196000</v>
       </c>
       <c r="I33" s="3">
-        <v>-126700</v>
+        <v>120200</v>
       </c>
       <c r="J33" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K33" s="3">
         <v>145300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>224800</v>
+        <v>211500</v>
       </c>
       <c r="E35" s="3">
-        <v>220000</v>
+        <v>223300</v>
       </c>
       <c r="F35" s="3">
-        <v>226600</v>
+        <v>218500</v>
       </c>
       <c r="G35" s="3">
-        <v>197400</v>
+        <v>225100</v>
       </c>
       <c r="H35" s="3">
-        <v>121100</v>
+        <v>196000</v>
       </c>
       <c r="I35" s="3">
-        <v>-126700</v>
+        <v>120200</v>
       </c>
       <c r="J35" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K35" s="3">
         <v>145300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>253600</v>
+        <v>441600</v>
       </c>
       <c r="E41" s="3">
-        <v>690700</v>
+        <v>251800</v>
       </c>
       <c r="F41" s="3">
-        <v>685200</v>
+        <v>685900</v>
       </c>
       <c r="G41" s="3">
-        <v>598700</v>
+        <v>680500</v>
       </c>
       <c r="H41" s="3">
-        <v>485500</v>
+        <v>594600</v>
       </c>
       <c r="I41" s="3">
-        <v>269100</v>
+        <v>482100</v>
       </c>
       <c r="J41" s="3">
+        <v>267200</v>
+      </c>
+      <c r="K41" s="3">
         <v>169400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>148400</v>
+        <v>237900</v>
       </c>
       <c r="E43" s="3">
-        <v>131200</v>
+        <v>147400</v>
       </c>
       <c r="F43" s="3">
-        <v>119800</v>
+        <v>130300</v>
       </c>
       <c r="G43" s="3">
-        <v>119900</v>
+        <v>119000</v>
       </c>
       <c r="H43" s="3">
-        <v>119800</v>
+        <v>119100</v>
       </c>
       <c r="I43" s="3">
-        <v>106600</v>
+        <v>119000</v>
       </c>
       <c r="J43" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K43" s="3">
         <v>125400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,124 +1745,139 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58400</v>
+        <v>65500</v>
       </c>
       <c r="E45" s="3">
-        <v>46400</v>
+        <v>58000</v>
       </c>
       <c r="F45" s="3">
-        <v>46300</v>
+        <v>46100</v>
       </c>
       <c r="G45" s="3">
-        <v>52200</v>
+        <v>46000</v>
       </c>
       <c r="H45" s="3">
-        <v>56200</v>
+        <v>51800</v>
       </c>
       <c r="I45" s="3">
-        <v>60500</v>
+        <v>55800</v>
       </c>
       <c r="J45" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K45" s="3">
         <v>62600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>460300</v>
+        <v>745000</v>
       </c>
       <c r="E46" s="3">
-        <v>868300</v>
+        <v>457200</v>
       </c>
       <c r="F46" s="3">
-        <v>851300</v>
+        <v>862400</v>
       </c>
       <c r="G46" s="3">
-        <v>770800</v>
+        <v>845400</v>
       </c>
       <c r="H46" s="3">
-        <v>661400</v>
+        <v>765600</v>
       </c>
       <c r="I46" s="3">
-        <v>436200</v>
+        <v>656900</v>
       </c>
       <c r="J46" s="3">
+        <v>433200</v>
+      </c>
+      <c r="K46" s="3">
         <v>357500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>391100</v>
+        <v>260000</v>
       </c>
       <c r="E47" s="3">
-        <v>314100</v>
+        <v>388400</v>
       </c>
       <c r="F47" s="3">
-        <v>298500</v>
+        <v>312000</v>
       </c>
       <c r="G47" s="3">
-        <v>238800</v>
+        <v>296400</v>
       </c>
       <c r="H47" s="3">
-        <v>227000</v>
+        <v>237200</v>
       </c>
       <c r="I47" s="3">
-        <v>164300</v>
+        <v>225500</v>
       </c>
       <c r="J47" s="3">
+        <v>163200</v>
+      </c>
+      <c r="K47" s="3">
         <v>231100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6707600</v>
+        <v>6536500</v>
       </c>
       <c r="E48" s="3">
-        <v>6100000</v>
+        <v>6661600</v>
       </c>
       <c r="F48" s="3">
-        <v>5950600</v>
+        <v>6058200</v>
       </c>
       <c r="G48" s="3">
-        <v>5797000</v>
+        <v>5909800</v>
       </c>
       <c r="H48" s="3">
-        <v>5683300</v>
+        <v>5757200</v>
       </c>
       <c r="I48" s="3">
-        <v>5715700</v>
+        <v>5644300</v>
       </c>
       <c r="J48" s="3">
+        <v>5676400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6169300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79000</v>
+        <v>81800</v>
       </c>
       <c r="E52" s="3">
-        <v>88900</v>
+        <v>78500</v>
       </c>
       <c r="F52" s="3">
-        <v>73100</v>
+        <v>88300</v>
       </c>
       <c r="G52" s="3">
-        <v>64900</v>
+        <v>72600</v>
       </c>
       <c r="H52" s="3">
-        <v>74900</v>
+        <v>64500</v>
       </c>
       <c r="I52" s="3">
-        <v>73400</v>
+        <v>74400</v>
       </c>
       <c r="J52" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K52" s="3">
         <v>15000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7638000</v>
+        <v>7623300</v>
       </c>
       <c r="E54" s="3">
-        <v>7371400</v>
+        <v>7585600</v>
       </c>
       <c r="F54" s="3">
-        <v>7173500</v>
+        <v>7320800</v>
       </c>
       <c r="G54" s="3">
-        <v>6871500</v>
+        <v>7124200</v>
       </c>
       <c r="H54" s="3">
-        <v>6646700</v>
+        <v>6824400</v>
       </c>
       <c r="I54" s="3">
-        <v>6389500</v>
+        <v>6601100</v>
       </c>
       <c r="J54" s="3">
+        <v>6345700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6772900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42100</v>
+        <v>37600</v>
       </c>
       <c r="E57" s="3">
-        <v>43400</v>
+        <v>41800</v>
       </c>
       <c r="F57" s="3">
-        <v>52300</v>
+        <v>43100</v>
       </c>
       <c r="G57" s="3">
-        <v>47500</v>
+        <v>52000</v>
       </c>
       <c r="H57" s="3">
-        <v>45300</v>
+        <v>47100</v>
       </c>
       <c r="I57" s="3">
-        <v>49500</v>
+        <v>45000</v>
       </c>
       <c r="J57" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K57" s="3">
         <v>53600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
-        <v>15900</v>
-      </c>
       <c r="G59" s="3">
-        <v>6200</v>
+        <v>15800</v>
       </c>
       <c r="H59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
-        <v>2600</v>
-      </c>
       <c r="J59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46700</v>
+        <v>54900</v>
       </c>
       <c r="E60" s="3">
-        <v>53000</v>
+        <v>46400</v>
       </c>
       <c r="F60" s="3">
-        <v>68200</v>
+        <v>52600</v>
       </c>
       <c r="G60" s="3">
-        <v>53600</v>
+        <v>67800</v>
       </c>
       <c r="H60" s="3">
-        <v>48900</v>
+        <v>53200</v>
       </c>
       <c r="I60" s="3">
-        <v>52100</v>
+        <v>48500</v>
       </c>
       <c r="J60" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K60" s="3">
         <v>68500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2105,42 +2248,48 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>105900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>152900</v>
+        <v>143200</v>
       </c>
       <c r="E62" s="3">
-        <v>131900</v>
+        <v>151800</v>
       </c>
       <c r="F62" s="3">
-        <v>123000</v>
+        <v>130900</v>
       </c>
       <c r="G62" s="3">
-        <v>109300</v>
+        <v>122200</v>
       </c>
       <c r="H62" s="3">
-        <v>94500</v>
+        <v>108500</v>
       </c>
       <c r="I62" s="3">
-        <v>83000</v>
+        <v>93900</v>
       </c>
       <c r="J62" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K62" s="3">
         <v>105700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>199600</v>
+        <v>198100</v>
       </c>
       <c r="E66" s="3">
-        <v>184800</v>
+        <v>198200</v>
       </c>
       <c r="F66" s="3">
-        <v>191200</v>
+        <v>183600</v>
       </c>
       <c r="G66" s="3">
-        <v>162900</v>
+        <v>189900</v>
       </c>
       <c r="H66" s="3">
-        <v>143400</v>
+        <v>161800</v>
       </c>
       <c r="I66" s="3">
-        <v>135100</v>
+        <v>142400</v>
       </c>
       <c r="J66" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K66" s="3">
         <v>280100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>273100</v>
+        <v>409300</v>
       </c>
       <c r="E72" s="3">
-        <v>120300</v>
+        <v>271200</v>
       </c>
       <c r="F72" s="3">
-        <v>-44100</v>
+        <v>119500</v>
       </c>
       <c r="G72" s="3">
-        <v>-205900</v>
+        <v>-43800</v>
       </c>
       <c r="H72" s="3">
-        <v>-340900</v>
+        <v>-204400</v>
       </c>
       <c r="I72" s="3">
-        <v>-398000</v>
+        <v>-338600</v>
       </c>
       <c r="J72" s="3">
+        <v>-395300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-210900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7438400</v>
+        <v>7425200</v>
       </c>
       <c r="E76" s="3">
-        <v>7186500</v>
+        <v>7387400</v>
       </c>
       <c r="F76" s="3">
-        <v>6982200</v>
+        <v>7137200</v>
       </c>
       <c r="G76" s="3">
-        <v>6708600</v>
+        <v>6934300</v>
       </c>
       <c r="H76" s="3">
-        <v>6503300</v>
+        <v>6662600</v>
       </c>
       <c r="I76" s="3">
-        <v>6254500</v>
+        <v>6458700</v>
       </c>
       <c r="J76" s="3">
+        <v>6211600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6492800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>224800</v>
+        <v>211500</v>
       </c>
       <c r="E81" s="3">
-        <v>220000</v>
+        <v>223300</v>
       </c>
       <c r="F81" s="3">
-        <v>226600</v>
+        <v>218500</v>
       </c>
       <c r="G81" s="3">
-        <v>197400</v>
+        <v>225100</v>
       </c>
       <c r="H81" s="3">
-        <v>121100</v>
+        <v>196000</v>
       </c>
       <c r="I81" s="3">
-        <v>-126700</v>
+        <v>120200</v>
       </c>
       <c r="J81" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K81" s="3">
         <v>145300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99000</v>
+        <v>93000</v>
       </c>
       <c r="E83" s="3">
-        <v>91300</v>
+        <v>98300</v>
       </c>
       <c r="F83" s="3">
-        <v>86600</v>
+        <v>90700</v>
       </c>
       <c r="G83" s="3">
-        <v>72900</v>
+        <v>86000</v>
       </c>
       <c r="H83" s="3">
-        <v>67100</v>
+        <v>72400</v>
       </c>
       <c r="I83" s="3">
-        <v>82600</v>
+        <v>66600</v>
       </c>
       <c r="J83" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K83" s="3">
         <v>93200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>314500</v>
+        <v>263500</v>
       </c>
       <c r="E89" s="3">
-        <v>287700</v>
+        <v>312300</v>
       </c>
       <c r="F89" s="3">
-        <v>315900</v>
+        <v>285700</v>
       </c>
       <c r="G89" s="3">
-        <v>272200</v>
+        <v>313700</v>
       </c>
       <c r="H89" s="3">
-        <v>192600</v>
+        <v>270300</v>
       </c>
       <c r="I89" s="3">
-        <v>250400</v>
+        <v>191300</v>
       </c>
       <c r="J89" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K89" s="3">
         <v>236800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2859,28 +3080,31 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-696600</v>
+        <v>-9000</v>
       </c>
       <c r="E94" s="3">
-        <v>-228800</v>
+        <v>-691800</v>
       </c>
       <c r="F94" s="3">
-        <v>-176900</v>
+        <v>-227200</v>
       </c>
       <c r="G94" s="3">
-        <v>-150800</v>
+        <v>-175700</v>
       </c>
       <c r="H94" s="3">
-        <v>-24400</v>
+        <v>-149800</v>
       </c>
       <c r="I94" s="3">
-        <v>-44200</v>
+        <v>-24200</v>
       </c>
       <c r="J94" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-58000</v>
+        <v>-59100</v>
       </c>
       <c r="E96" s="3">
-        <v>-53600</v>
+        <v>-57600</v>
       </c>
       <c r="F96" s="3">
-        <v>-51000</v>
+        <v>-53200</v>
       </c>
       <c r="G96" s="3">
-        <v>-50100</v>
+        <v>-50700</v>
       </c>
       <c r="H96" s="3">
-        <v>-51000</v>
+        <v>-49800</v>
       </c>
       <c r="I96" s="3">
-        <v>-46400</v>
+        <v>-50700</v>
       </c>
       <c r="J96" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-45300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57600</v>
+        <v>-60300</v>
       </c>
       <c r="E100" s="3">
-        <v>-53700</v>
+        <v>-57200</v>
       </c>
       <c r="F100" s="3">
-        <v>-50900</v>
+        <v>-53400</v>
       </c>
       <c r="G100" s="3">
-        <v>-12100</v>
+        <v>-50600</v>
       </c>
       <c r="H100" s="3">
-        <v>44600</v>
+        <v>-12000</v>
       </c>
       <c r="I100" s="3">
-        <v>-99400</v>
+        <v>44300</v>
       </c>
       <c r="J100" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-182900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>-4500</v>
       </c>
       <c r="E101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
-        <v>4000</v>
-      </c>
       <c r="H101" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>-7100</v>
+        <v>3400</v>
       </c>
       <c r="J101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-437100</v>
+        <v>189800</v>
       </c>
       <c r="E102" s="3">
+        <v>-434100</v>
+      </c>
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="F102" s="3">
-        <v>86400</v>
-      </c>
       <c r="G102" s="3">
-        <v>113300</v>
+        <v>85900</v>
       </c>
       <c r="H102" s="3">
-        <v>216400</v>
+        <v>112500</v>
       </c>
       <c r="I102" s="3">
-        <v>99700</v>
+        <v>214900</v>
       </c>
       <c r="J102" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K102" s="3">
         <v>51800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>402900</v>
+        <v>417600</v>
       </c>
       <c r="E8" s="3">
-        <v>442100</v>
+        <v>403100</v>
       </c>
       <c r="F8" s="3">
-        <v>393500</v>
+        <v>442300</v>
       </c>
       <c r="G8" s="3">
-        <v>387900</v>
+        <v>393600</v>
       </c>
       <c r="H8" s="3">
-        <v>356400</v>
+        <v>388000</v>
       </c>
       <c r="I8" s="3">
-        <v>248900</v>
+        <v>356500</v>
       </c>
       <c r="J8" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K8" s="3">
         <v>306300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>331000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E9" s="3">
         <v>146500</v>
       </c>
-      <c r="E9" s="3">
-        <v>158600</v>
-      </c>
       <c r="F9" s="3">
-        <v>142400</v>
+        <v>158700</v>
       </c>
       <c r="G9" s="3">
+        <v>142500</v>
+      </c>
+      <c r="H9" s="3">
         <v>145500</v>
       </c>
-      <c r="H9" s="3">
-        <v>123900</v>
-      </c>
       <c r="I9" s="3">
+        <v>124000</v>
+      </c>
+      <c r="J9" s="3">
         <v>102300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>137600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>152600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>256400</v>
+        <v>256300</v>
       </c>
       <c r="E10" s="3">
-        <v>283500</v>
+        <v>256500</v>
       </c>
       <c r="F10" s="3">
-        <v>251100</v>
+        <v>283700</v>
       </c>
       <c r="G10" s="3">
-        <v>242400</v>
+        <v>251200</v>
       </c>
       <c r="H10" s="3">
-        <v>232500</v>
+        <v>242500</v>
       </c>
       <c r="I10" s="3">
-        <v>146600</v>
+        <v>232600</v>
       </c>
       <c r="J10" s="3">
+        <v>146700</v>
+      </c>
+      <c r="K10" s="3">
         <v>168800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>178400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +906,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-96200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>9600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-12200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>346100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>152200</v>
+        <v>77200</v>
       </c>
       <c r="E17" s="3">
-        <v>180600</v>
+        <v>152300</v>
       </c>
       <c r="F17" s="3">
-        <v>149500</v>
+        <v>180700</v>
       </c>
       <c r="G17" s="3">
+        <v>149600</v>
+      </c>
+      <c r="H17" s="3">
         <v>138500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129300</v>
       </c>
-      <c r="I17" s="3">
-        <v>114100</v>
-      </c>
       <c r="J17" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K17" s="3">
         <v>489000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>165600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>250700</v>
+        <v>340400</v>
       </c>
       <c r="E18" s="3">
-        <v>261500</v>
+        <v>250800</v>
       </c>
       <c r="F18" s="3">
-        <v>243900</v>
+        <v>261600</v>
       </c>
       <c r="G18" s="3">
-        <v>249400</v>
+        <v>244000</v>
       </c>
       <c r="H18" s="3">
-        <v>227100</v>
+        <v>249500</v>
       </c>
       <c r="I18" s="3">
+        <v>227200</v>
+      </c>
+      <c r="J18" s="3">
         <v>134800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-182700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>165500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>343300</v>
+        <v>438500</v>
       </c>
       <c r="E21" s="3">
-        <v>359800</v>
+        <v>343400</v>
       </c>
       <c r="F21" s="3">
-        <v>334600</v>
+        <v>360000</v>
       </c>
       <c r="G21" s="3">
-        <v>338700</v>
+        <v>334800</v>
       </c>
       <c r="H21" s="3">
-        <v>300900</v>
+        <v>338800</v>
       </c>
       <c r="I21" s="3">
-        <v>201900</v>
+        <v>301000</v>
       </c>
       <c r="J21" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>262700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,16 +1155,16 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1134,77 +1173,86 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>249900</v>
+        <v>338500</v>
       </c>
       <c r="E23" s="3">
-        <v>260700</v>
+        <v>250000</v>
       </c>
       <c r="F23" s="3">
-        <v>243700</v>
+        <v>260800</v>
       </c>
       <c r="G23" s="3">
-        <v>252500</v>
+        <v>243800</v>
       </c>
       <c r="H23" s="3">
-        <v>228100</v>
+        <v>252600</v>
       </c>
       <c r="I23" s="3">
+        <v>228200</v>
+      </c>
+      <c r="J23" s="3">
         <v>134900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-183000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>167400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E24" s="3">
         <v>38500</v>
       </c>
-      <c r="E24" s="3">
-        <v>37400</v>
-      </c>
       <c r="F24" s="3">
+        <v>37500</v>
+      </c>
+      <c r="G24" s="3">
         <v>25200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32100</v>
       </c>
-      <c r="I24" s="3">
-        <v>14600</v>
-      </c>
       <c r="J24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-57200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E26" s="3">
         <v>211500</v>
       </c>
-      <c r="E26" s="3">
-        <v>223300</v>
-      </c>
       <c r="F26" s="3">
+        <v>223400</v>
+      </c>
+      <c r="G26" s="3">
         <v>218500</v>
       </c>
-      <c r="G26" s="3">
-        <v>225100</v>
-      </c>
       <c r="H26" s="3">
-        <v>196000</v>
+        <v>225200</v>
       </c>
       <c r="I26" s="3">
-        <v>120200</v>
+        <v>196100</v>
       </c>
       <c r="J26" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-125900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>145300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E27" s="3">
         <v>211500</v>
       </c>
-      <c r="E27" s="3">
-        <v>223300</v>
-      </c>
       <c r="F27" s="3">
+        <v>223400</v>
+      </c>
+      <c r="G27" s="3">
         <v>218500</v>
       </c>
-      <c r="G27" s="3">
-        <v>225100</v>
-      </c>
       <c r="H27" s="3">
-        <v>196000</v>
+        <v>225200</v>
       </c>
       <c r="I27" s="3">
-        <v>120200</v>
+        <v>196100</v>
       </c>
       <c r="J27" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-125900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E33" s="3">
         <v>211500</v>
       </c>
-      <c r="E33" s="3">
-        <v>223300</v>
-      </c>
       <c r="F33" s="3">
+        <v>223400</v>
+      </c>
+      <c r="G33" s="3">
         <v>218500</v>
       </c>
-      <c r="G33" s="3">
-        <v>225100</v>
-      </c>
       <c r="H33" s="3">
-        <v>196000</v>
+        <v>225200</v>
       </c>
       <c r="I33" s="3">
-        <v>120200</v>
+        <v>196100</v>
       </c>
       <c r="J33" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-125900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E35" s="3">
         <v>211500</v>
       </c>
-      <c r="E35" s="3">
-        <v>223300</v>
-      </c>
       <c r="F35" s="3">
+        <v>223400</v>
+      </c>
+      <c r="G35" s="3">
         <v>218500</v>
       </c>
-      <c r="G35" s="3">
-        <v>225100</v>
-      </c>
       <c r="H35" s="3">
-        <v>196000</v>
+        <v>225200</v>
       </c>
       <c r="I35" s="3">
-        <v>120200</v>
+        <v>196100</v>
       </c>
       <c r="J35" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-125900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>441600</v>
+        <v>687200</v>
       </c>
       <c r="E41" s="3">
-        <v>251800</v>
+        <v>441800</v>
       </c>
       <c r="F41" s="3">
-        <v>685900</v>
+        <v>251900</v>
       </c>
       <c r="G41" s="3">
-        <v>680500</v>
+        <v>686200</v>
       </c>
       <c r="H41" s="3">
-        <v>594600</v>
+        <v>680700</v>
       </c>
       <c r="I41" s="3">
-        <v>482100</v>
+        <v>594800</v>
       </c>
       <c r="J41" s="3">
+        <v>482300</v>
+      </c>
+      <c r="K41" s="3">
         <v>267200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>169400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1773,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>237900</v>
+        <v>203300</v>
       </c>
       <c r="E43" s="3">
+        <v>238000</v>
+      </c>
+      <c r="F43" s="3">
         <v>147400</v>
       </c>
-      <c r="F43" s="3">
-        <v>130300</v>
-      </c>
       <c r="G43" s="3">
+        <v>130400</v>
+      </c>
+      <c r="H43" s="3">
         <v>119000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>119100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>119000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,136 +1843,151 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E45" s="3">
         <v>65500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46000</v>
       </c>
-      <c r="H45" s="3">
-        <v>51800</v>
-      </c>
       <c r="I45" s="3">
+        <v>51900</v>
+      </c>
+      <c r="J45" s="3">
         <v>55800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>745000</v>
+        <v>957500</v>
       </c>
       <c r="E46" s="3">
-        <v>457200</v>
+        <v>745300</v>
       </c>
       <c r="F46" s="3">
-        <v>862400</v>
+        <v>457300</v>
       </c>
       <c r="G46" s="3">
-        <v>845400</v>
+        <v>862700</v>
       </c>
       <c r="H46" s="3">
-        <v>765600</v>
+        <v>845800</v>
       </c>
       <c r="I46" s="3">
-        <v>656900</v>
+        <v>765900</v>
       </c>
       <c r="J46" s="3">
+        <v>657200</v>
+      </c>
+      <c r="K46" s="3">
         <v>433200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>357500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>260000</v>
+        <v>299600</v>
       </c>
       <c r="E47" s="3">
-        <v>388400</v>
+        <v>260100</v>
       </c>
       <c r="F47" s="3">
-        <v>312000</v>
+        <v>388500</v>
       </c>
       <c r="G47" s="3">
-        <v>296400</v>
+        <v>312100</v>
       </c>
       <c r="H47" s="3">
-        <v>237200</v>
+        <v>296500</v>
       </c>
       <c r="I47" s="3">
-        <v>225500</v>
+        <v>237300</v>
       </c>
       <c r="J47" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K47" s="3">
         <v>163200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>231100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6536500</v>
+        <v>6570800</v>
       </c>
       <c r="E48" s="3">
-        <v>6661600</v>
+        <v>6539100</v>
       </c>
       <c r="F48" s="3">
-        <v>6058200</v>
+        <v>6664200</v>
       </c>
       <c r="G48" s="3">
-        <v>5909800</v>
+        <v>6060600</v>
       </c>
       <c r="H48" s="3">
-        <v>5757200</v>
+        <v>5912100</v>
       </c>
       <c r="I48" s="3">
-        <v>5644300</v>
+        <v>5759500</v>
       </c>
       <c r="J48" s="3">
+        <v>5646600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5676400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6169300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E52" s="3">
         <v>81800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>72900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7623300</v>
+        <v>7913300</v>
       </c>
       <c r="E54" s="3">
-        <v>7585600</v>
+        <v>7626300</v>
       </c>
       <c r="F54" s="3">
-        <v>7320800</v>
+        <v>7588600</v>
       </c>
       <c r="G54" s="3">
-        <v>7124200</v>
+        <v>7323700</v>
       </c>
       <c r="H54" s="3">
-        <v>6824400</v>
+        <v>7127000</v>
       </c>
       <c r="I54" s="3">
-        <v>6601100</v>
+        <v>6827100</v>
       </c>
       <c r="J54" s="3">
+        <v>6603700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6345700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6772900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2225,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E57" s="3">
         <v>37600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,72 +2293,81 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E59" s="3">
         <v>17300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67800</v>
       </c>
-      <c r="H60" s="3">
-        <v>53200</v>
-      </c>
       <c r="I60" s="3">
-        <v>48500</v>
+        <v>53300</v>
       </c>
       <c r="J60" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K60" s="3">
         <v>51700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2251,45 +2393,51 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>105900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E62" s="3">
         <v>143200</v>
       </c>
-      <c r="E62" s="3">
-        <v>151800</v>
-      </c>
       <c r="F62" s="3">
-        <v>130900</v>
+        <v>151900</v>
       </c>
       <c r="G62" s="3">
+        <v>131000</v>
+      </c>
+      <c r="H62" s="3">
         <v>122200</v>
       </c>
-      <c r="H62" s="3">
-        <v>108500</v>
-      </c>
       <c r="I62" s="3">
+        <v>108600</v>
+      </c>
+      <c r="J62" s="3">
         <v>93900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>105700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>198100</v>
+        <v>235400</v>
       </c>
       <c r="E66" s="3">
         <v>198200</v>
       </c>
       <c r="F66" s="3">
+        <v>198300</v>
+      </c>
+      <c r="G66" s="3">
         <v>183600</v>
       </c>
-      <c r="G66" s="3">
-        <v>189900</v>
-      </c>
       <c r="H66" s="3">
+        <v>190000</v>
+      </c>
+      <c r="I66" s="3">
         <v>161800</v>
       </c>
-      <c r="I66" s="3">
-        <v>142400</v>
-      </c>
       <c r="J66" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K66" s="3">
         <v>134100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>280100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>409300</v>
+        <v>617900</v>
       </c>
       <c r="E72" s="3">
-        <v>271200</v>
+        <v>409400</v>
       </c>
       <c r="F72" s="3">
+        <v>271300</v>
+      </c>
+      <c r="G72" s="3">
         <v>119500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43800</v>
       </c>
-      <c r="H72" s="3">
-        <v>-204400</v>
-      </c>
       <c r="I72" s="3">
-        <v>-338600</v>
+        <v>-204500</v>
       </c>
       <c r="J72" s="3">
+        <v>-338700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-395300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-210900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7425200</v>
+        <v>7677900</v>
       </c>
       <c r="E76" s="3">
-        <v>7387400</v>
+        <v>7428100</v>
       </c>
       <c r="F76" s="3">
-        <v>7137200</v>
+        <v>7390300</v>
       </c>
       <c r="G76" s="3">
-        <v>6934300</v>
+        <v>7140000</v>
       </c>
       <c r="H76" s="3">
-        <v>6662600</v>
+        <v>6937000</v>
       </c>
       <c r="I76" s="3">
-        <v>6458700</v>
+        <v>6665200</v>
       </c>
       <c r="J76" s="3">
+        <v>6461200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6211600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6492800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E81" s="3">
         <v>211500</v>
       </c>
-      <c r="E81" s="3">
-        <v>223300</v>
-      </c>
       <c r="F81" s="3">
+        <v>223400</v>
+      </c>
+      <c r="G81" s="3">
         <v>218500</v>
       </c>
-      <c r="G81" s="3">
-        <v>225100</v>
-      </c>
       <c r="H81" s="3">
-        <v>196000</v>
+        <v>225200</v>
       </c>
       <c r="I81" s="3">
-        <v>120200</v>
+        <v>196100</v>
       </c>
       <c r="J81" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-125900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
       </c>
-      <c r="E83" s="3">
-        <v>98300</v>
-      </c>
       <c r="F83" s="3">
+        <v>98400</v>
+      </c>
+      <c r="G83" s="3">
         <v>90700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>86000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>66600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>82000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>263500</v>
+        <v>355500</v>
       </c>
       <c r="E89" s="3">
-        <v>312300</v>
+        <v>263700</v>
       </c>
       <c r="F89" s="3">
-        <v>285700</v>
+        <v>312500</v>
       </c>
       <c r="G89" s="3">
-        <v>313700</v>
+        <v>285800</v>
       </c>
       <c r="H89" s="3">
-        <v>270300</v>
+        <v>313900</v>
       </c>
       <c r="I89" s="3">
-        <v>191300</v>
+        <v>270400</v>
       </c>
       <c r="J89" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K89" s="3">
         <v>248600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>236800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-500</v>
       </c>
       <c r="L91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-691800</v>
-      </c>
       <c r="F94" s="3">
-        <v>-227200</v>
+        <v>-692100</v>
       </c>
       <c r="G94" s="3">
+        <v>-227300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-175700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-149800</v>
-      </c>
       <c r="I94" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-24200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3445,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-59100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-57600</v>
       </c>
-      <c r="F96" s="3">
-        <v>-53200</v>
-      </c>
       <c r="G96" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-50700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-49800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-50700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-45300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-60300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-57200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-50600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-98700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-182900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
-        <v>3900</v>
-      </c>
       <c r="I101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J101" s="3">
         <v>3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>189800</v>
+        <v>245400</v>
       </c>
       <c r="E102" s="3">
-        <v>-434100</v>
+        <v>189900</v>
       </c>
       <c r="F102" s="3">
+        <v>-434300</v>
+      </c>
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>85900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>112500</v>
       </c>
-      <c r="I102" s="3">
-        <v>214900</v>
-      </c>
       <c r="J102" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K102" s="3">
         <v>99000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>417600</v>
+        <v>441900</v>
       </c>
       <c r="E8" s="3">
-        <v>403100</v>
+        <v>427500</v>
       </c>
       <c r="F8" s="3">
-        <v>442300</v>
+        <v>412600</v>
       </c>
       <c r="G8" s="3">
-        <v>393600</v>
+        <v>452800</v>
       </c>
       <c r="H8" s="3">
-        <v>388000</v>
+        <v>402900</v>
       </c>
       <c r="I8" s="3">
-        <v>356500</v>
+        <v>397200</v>
       </c>
       <c r="J8" s="3">
+        <v>365000</v>
+      </c>
+      <c r="K8" s="3">
         <v>249000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>306300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>331000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161300</v>
+        <v>154200</v>
       </c>
       <c r="E9" s="3">
-        <v>146500</v>
+        <v>165100</v>
       </c>
       <c r="F9" s="3">
-        <v>158700</v>
+        <v>150000</v>
       </c>
       <c r="G9" s="3">
-        <v>142500</v>
+        <v>162400</v>
       </c>
       <c r="H9" s="3">
-        <v>145500</v>
+        <v>145800</v>
       </c>
       <c r="I9" s="3">
-        <v>124000</v>
+        <v>149000</v>
       </c>
       <c r="J9" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K9" s="3">
         <v>102300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>137600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>152600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>256300</v>
+        <v>287800</v>
       </c>
       <c r="E10" s="3">
-        <v>256500</v>
+        <v>262300</v>
       </c>
       <c r="F10" s="3">
-        <v>283700</v>
+        <v>262600</v>
       </c>
       <c r="G10" s="3">
-        <v>251200</v>
+        <v>290400</v>
       </c>
       <c r="H10" s="3">
-        <v>242500</v>
+        <v>257100</v>
       </c>
       <c r="I10" s="3">
-        <v>232600</v>
+        <v>248200</v>
       </c>
       <c r="J10" s="3">
+        <v>238100</v>
+      </c>
+      <c r="K10" s="3">
         <v>146700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>168800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-96200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-98500</v>
       </c>
       <c r="F14" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="H14" s="3">
-        <v>-12200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-12500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>346100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>77200</v>
+        <v>165400</v>
       </c>
       <c r="E17" s="3">
-        <v>152300</v>
+        <v>79000</v>
       </c>
       <c r="F17" s="3">
-        <v>180700</v>
+        <v>155900</v>
       </c>
       <c r="G17" s="3">
-        <v>149600</v>
+        <v>185000</v>
       </c>
       <c r="H17" s="3">
-        <v>138500</v>
+        <v>153100</v>
       </c>
       <c r="I17" s="3">
-        <v>129300</v>
+        <v>141800</v>
       </c>
       <c r="J17" s="3">
+        <v>132400</v>
+      </c>
+      <c r="K17" s="3">
         <v>114200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>489000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>165600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>340400</v>
+        <v>276500</v>
       </c>
       <c r="E18" s="3">
-        <v>250800</v>
+        <v>348400</v>
       </c>
       <c r="F18" s="3">
-        <v>261600</v>
+        <v>256700</v>
       </c>
       <c r="G18" s="3">
-        <v>244000</v>
+        <v>267800</v>
       </c>
       <c r="H18" s="3">
-        <v>249500</v>
+        <v>249800</v>
       </c>
       <c r="I18" s="3">
-        <v>227200</v>
+        <v>255400</v>
       </c>
       <c r="J18" s="3">
+        <v>232600</v>
+      </c>
+      <c r="K18" s="3">
         <v>134800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-182700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>165500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>8200</v>
       </c>
       <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>438500</v>
+        <v>382100</v>
       </c>
       <c r="E21" s="3">
-        <v>343400</v>
+        <v>448800</v>
       </c>
       <c r="F21" s="3">
-        <v>360000</v>
+        <v>351500</v>
       </c>
       <c r="G21" s="3">
-        <v>334800</v>
+        <v>368500</v>
       </c>
       <c r="H21" s="3">
-        <v>338800</v>
+        <v>342700</v>
       </c>
       <c r="I21" s="3">
-        <v>301000</v>
+        <v>346800</v>
       </c>
       <c r="J21" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K21" s="3">
         <v>202000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>262700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,16 +1198,16 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1176,83 +1216,92 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>338500</v>
+        <v>284400</v>
       </c>
       <c r="E23" s="3">
-        <v>250000</v>
+        <v>346400</v>
       </c>
       <c r="F23" s="3">
-        <v>260800</v>
+        <v>255900</v>
       </c>
       <c r="G23" s="3">
-        <v>243800</v>
+        <v>267000</v>
       </c>
       <c r="H23" s="3">
-        <v>252600</v>
+        <v>249500</v>
       </c>
       <c r="I23" s="3">
-        <v>228200</v>
+        <v>258500</v>
       </c>
       <c r="J23" s="3">
+        <v>233600</v>
+      </c>
+      <c r="K23" s="3">
         <v>134900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-183000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>167400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57000</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>38500</v>
+        <v>58300</v>
       </c>
       <c r="F24" s="3">
-        <v>37500</v>
+        <v>39400</v>
       </c>
       <c r="G24" s="3">
-        <v>25200</v>
+        <v>38300</v>
       </c>
       <c r="H24" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="I24" s="3">
-        <v>32100</v>
+        <v>28000</v>
       </c>
       <c r="J24" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K24" s="3">
         <v>14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-57200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>281500</v>
+        <v>237400</v>
       </c>
       <c r="E26" s="3">
-        <v>211500</v>
+        <v>288100</v>
       </c>
       <c r="F26" s="3">
-        <v>223400</v>
+        <v>216500</v>
       </c>
       <c r="G26" s="3">
-        <v>218500</v>
+        <v>228700</v>
       </c>
       <c r="H26" s="3">
-        <v>225200</v>
+        <v>223700</v>
       </c>
       <c r="I26" s="3">
-        <v>196100</v>
+        <v>230500</v>
       </c>
       <c r="J26" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K26" s="3">
         <v>120300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-125900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>145300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>281500</v>
+        <v>237400</v>
       </c>
       <c r="E27" s="3">
-        <v>211500</v>
+        <v>288100</v>
       </c>
       <c r="F27" s="3">
-        <v>223400</v>
+        <v>216500</v>
       </c>
       <c r="G27" s="3">
-        <v>218500</v>
+        <v>228700</v>
       </c>
       <c r="H27" s="3">
-        <v>225200</v>
+        <v>223700</v>
       </c>
       <c r="I27" s="3">
-        <v>196100</v>
+        <v>230500</v>
       </c>
       <c r="J27" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K27" s="3">
         <v>120300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-125900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>-8200</v>
       </c>
       <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-3300</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>281500</v>
+        <v>237400</v>
       </c>
       <c r="E33" s="3">
-        <v>211500</v>
+        <v>288100</v>
       </c>
       <c r="F33" s="3">
-        <v>223400</v>
+        <v>216500</v>
       </c>
       <c r="G33" s="3">
-        <v>218500</v>
+        <v>228700</v>
       </c>
       <c r="H33" s="3">
-        <v>225200</v>
+        <v>223700</v>
       </c>
       <c r="I33" s="3">
-        <v>196100</v>
+        <v>230500</v>
       </c>
       <c r="J33" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K33" s="3">
         <v>120300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-125900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>281500</v>
+        <v>237400</v>
       </c>
       <c r="E35" s="3">
-        <v>211500</v>
+        <v>288100</v>
       </c>
       <c r="F35" s="3">
-        <v>223400</v>
+        <v>216500</v>
       </c>
       <c r="G35" s="3">
-        <v>218500</v>
+        <v>228700</v>
       </c>
       <c r="H35" s="3">
-        <v>225200</v>
+        <v>223700</v>
       </c>
       <c r="I35" s="3">
-        <v>196100</v>
+        <v>230500</v>
       </c>
       <c r="J35" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K35" s="3">
         <v>120300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-125900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>687200</v>
+        <v>942700</v>
       </c>
       <c r="E41" s="3">
-        <v>441800</v>
+        <v>703500</v>
       </c>
       <c r="F41" s="3">
-        <v>251900</v>
+        <v>452200</v>
       </c>
       <c r="G41" s="3">
-        <v>686200</v>
+        <v>257900</v>
       </c>
       <c r="H41" s="3">
-        <v>680700</v>
+        <v>702400</v>
       </c>
       <c r="I41" s="3">
-        <v>594800</v>
+        <v>696800</v>
       </c>
       <c r="J41" s="3">
+        <v>608900</v>
+      </c>
+      <c r="K41" s="3">
         <v>482300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>267200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,43 +1866,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>203300</v>
+        <v>241200</v>
       </c>
       <c r="E43" s="3">
-        <v>238000</v>
+        <v>208100</v>
       </c>
       <c r="F43" s="3">
-        <v>147400</v>
+        <v>243700</v>
       </c>
       <c r="G43" s="3">
-        <v>130400</v>
+        <v>150900</v>
       </c>
       <c r="H43" s="3">
+        <v>133400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>121800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K43" s="3">
         <v>119000</v>
       </c>
-      <c r="I43" s="3">
-        <v>119100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>119000</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>105900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,148 +1942,163 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>68600</v>
+      </c>
+      <c r="F45" s="3">
         <v>67000</v>
       </c>
-      <c r="E45" s="3">
-        <v>65500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>58000</v>
-      </c>
       <c r="G45" s="3">
-        <v>46100</v>
+        <v>59400</v>
       </c>
       <c r="H45" s="3">
-        <v>46000</v>
+        <v>47200</v>
       </c>
       <c r="I45" s="3">
-        <v>51900</v>
+        <v>47100</v>
       </c>
       <c r="J45" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K45" s="3">
         <v>55800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>957500</v>
+        <v>1238700</v>
       </c>
       <c r="E46" s="3">
-        <v>745300</v>
+        <v>980100</v>
       </c>
       <c r="F46" s="3">
-        <v>457300</v>
+        <v>762900</v>
       </c>
       <c r="G46" s="3">
-        <v>862700</v>
+        <v>468100</v>
       </c>
       <c r="H46" s="3">
-        <v>845800</v>
+        <v>883100</v>
       </c>
       <c r="I46" s="3">
-        <v>765900</v>
+        <v>865700</v>
       </c>
       <c r="J46" s="3">
+        <v>783900</v>
+      </c>
+      <c r="K46" s="3">
         <v>657200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>433200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>357500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>299600</v>
+        <v>338900</v>
       </c>
       <c r="E47" s="3">
-        <v>260100</v>
+        <v>306700</v>
       </c>
       <c r="F47" s="3">
-        <v>388500</v>
+        <v>266200</v>
       </c>
       <c r="G47" s="3">
-        <v>312100</v>
+        <v>397700</v>
       </c>
       <c r="H47" s="3">
-        <v>296500</v>
+        <v>319400</v>
       </c>
       <c r="I47" s="3">
-        <v>237300</v>
+        <v>303500</v>
       </c>
       <c r="J47" s="3">
+        <v>242900</v>
+      </c>
+      <c r="K47" s="3">
         <v>225600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>163200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>231100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6570800</v>
+        <v>6655200</v>
       </c>
       <c r="E48" s="3">
-        <v>6539100</v>
+        <v>6726000</v>
       </c>
       <c r="F48" s="3">
-        <v>6664200</v>
+        <v>6693500</v>
       </c>
       <c r="G48" s="3">
-        <v>6060600</v>
+        <v>6821600</v>
       </c>
       <c r="H48" s="3">
-        <v>5912100</v>
+        <v>6203700</v>
       </c>
       <c r="I48" s="3">
-        <v>5759500</v>
+        <v>6051800</v>
       </c>
       <c r="J48" s="3">
+        <v>5895500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5646600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5676400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6169300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85400</v>
+        <v>116000</v>
       </c>
       <c r="E52" s="3">
-        <v>81800</v>
+        <v>87400</v>
       </c>
       <c r="F52" s="3">
-        <v>78500</v>
+        <v>83700</v>
       </c>
       <c r="G52" s="3">
-        <v>88300</v>
+        <v>80400</v>
       </c>
       <c r="H52" s="3">
-        <v>72600</v>
+        <v>90400</v>
       </c>
       <c r="I52" s="3">
-        <v>64500</v>
+        <v>74400</v>
       </c>
       <c r="J52" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K52" s="3">
         <v>74400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>72900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7913300</v>
+        <v>8348700</v>
       </c>
       <c r="E54" s="3">
-        <v>7626300</v>
+        <v>8100200</v>
       </c>
       <c r="F54" s="3">
-        <v>7588600</v>
+        <v>7806400</v>
       </c>
       <c r="G54" s="3">
-        <v>7323700</v>
+        <v>7767800</v>
       </c>
       <c r="H54" s="3">
-        <v>7127000</v>
+        <v>7496600</v>
       </c>
       <c r="I54" s="3">
-        <v>6827100</v>
+        <v>7295400</v>
       </c>
       <c r="J54" s="3">
+        <v>6988300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6603700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6345700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6772900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>38500</v>
+      </c>
+      <c r="G57" s="3">
         <v>42800</v>
       </c>
-      <c r="E57" s="3">
-        <v>37600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>41800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>43100</v>
-      </c>
       <c r="H57" s="3">
-        <v>52000</v>
+        <v>44100</v>
       </c>
       <c r="I57" s="3">
-        <v>47100</v>
+        <v>53200</v>
       </c>
       <c r="J57" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K57" s="3">
         <v>45000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,78 +2430,87 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12200</v>
+        <v>9000</v>
       </c>
       <c r="E59" s="3">
-        <v>17300</v>
+        <v>12500</v>
       </c>
       <c r="F59" s="3">
-        <v>4600</v>
+        <v>17700</v>
       </c>
       <c r="G59" s="3">
-        <v>9600</v>
+        <v>4700</v>
       </c>
       <c r="H59" s="3">
-        <v>15800</v>
+        <v>9800</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
+        <v>16200</v>
       </c>
       <c r="J59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55000</v>
+        <v>57000</v>
       </c>
       <c r="E60" s="3">
-        <v>54900</v>
+        <v>56400</v>
       </c>
       <c r="F60" s="3">
-        <v>46400</v>
+        <v>56200</v>
       </c>
       <c r="G60" s="3">
+        <v>47500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>53900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>69400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>48600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>51700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>68500</v>
+      </c>
+      <c r="N60" s="3">
         <v>52600</v>
       </c>
-      <c r="H60" s="3">
-        <v>67800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>53300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>48600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>51700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>68500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>52600</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2396,48 +2539,54 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>105900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>180300</v>
+        <v>197000</v>
       </c>
       <c r="E62" s="3">
-        <v>143200</v>
+        <v>184600</v>
       </c>
       <c r="F62" s="3">
-        <v>151900</v>
+        <v>146600</v>
       </c>
       <c r="G62" s="3">
-        <v>131000</v>
+        <v>155500</v>
       </c>
       <c r="H62" s="3">
-        <v>122200</v>
+        <v>134100</v>
       </c>
       <c r="I62" s="3">
-        <v>108600</v>
+        <v>125100</v>
       </c>
       <c r="J62" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K62" s="3">
         <v>93900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>105700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235400</v>
+        <v>254000</v>
       </c>
       <c r="E66" s="3">
-        <v>198200</v>
+        <v>240900</v>
       </c>
       <c r="F66" s="3">
-        <v>198300</v>
+        <v>202800</v>
       </c>
       <c r="G66" s="3">
-        <v>183600</v>
+        <v>203000</v>
       </c>
       <c r="H66" s="3">
-        <v>190000</v>
+        <v>188000</v>
       </c>
       <c r="I66" s="3">
-        <v>161800</v>
+        <v>194500</v>
       </c>
       <c r="J66" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K66" s="3">
         <v>142500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>134100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>280100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>617900</v>
+        <v>789600</v>
       </c>
       <c r="E72" s="3">
-        <v>409400</v>
+        <v>632500</v>
       </c>
       <c r="F72" s="3">
-        <v>271300</v>
+        <v>419100</v>
       </c>
       <c r="G72" s="3">
-        <v>119500</v>
+        <v>277700</v>
       </c>
       <c r="H72" s="3">
-        <v>-43800</v>
+        <v>122400</v>
       </c>
       <c r="I72" s="3">
-        <v>-204500</v>
+        <v>-44900</v>
       </c>
       <c r="J72" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-338700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-395300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-210900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7677900</v>
+        <v>8094700</v>
       </c>
       <c r="E76" s="3">
-        <v>7428100</v>
+        <v>7859300</v>
       </c>
       <c r="F76" s="3">
-        <v>7390300</v>
+        <v>7603600</v>
       </c>
       <c r="G76" s="3">
-        <v>7140000</v>
+        <v>7564900</v>
       </c>
       <c r="H76" s="3">
-        <v>6937000</v>
+        <v>7308700</v>
       </c>
       <c r="I76" s="3">
-        <v>6665200</v>
+        <v>7100900</v>
       </c>
       <c r="J76" s="3">
+        <v>6822700</v>
+      </c>
+      <c r="K76" s="3">
         <v>6461200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6211600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6492800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>281500</v>
+        <v>237400</v>
       </c>
       <c r="E81" s="3">
-        <v>211500</v>
+        <v>288100</v>
       </c>
       <c r="F81" s="3">
-        <v>223400</v>
+        <v>216500</v>
       </c>
       <c r="G81" s="3">
-        <v>218500</v>
+        <v>228700</v>
       </c>
       <c r="H81" s="3">
-        <v>225200</v>
+        <v>223700</v>
       </c>
       <c r="I81" s="3">
-        <v>196100</v>
+        <v>230500</v>
       </c>
       <c r="J81" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K81" s="3">
         <v>120300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-125900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99700</v>
+        <v>97300</v>
       </c>
       <c r="E83" s="3">
-        <v>93000</v>
+        <v>102000</v>
       </c>
       <c r="F83" s="3">
-        <v>98400</v>
+        <v>95200</v>
       </c>
       <c r="G83" s="3">
+        <v>100700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>92900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>88000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>66600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>82000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>93200</v>
+      </c>
+      <c r="N83" s="3">
         <v>90700</v>
       </c>
-      <c r="H83" s="3">
-        <v>86000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>72400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>66600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>82000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>93200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>90700</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>355500</v>
+        <v>300800</v>
       </c>
       <c r="E89" s="3">
-        <v>263700</v>
+        <v>363900</v>
       </c>
       <c r="F89" s="3">
-        <v>312500</v>
+        <v>269900</v>
       </c>
       <c r="G89" s="3">
-        <v>285800</v>
+        <v>319800</v>
       </c>
       <c r="H89" s="3">
-        <v>313900</v>
+        <v>292600</v>
       </c>
       <c r="I89" s="3">
-        <v>270400</v>
+        <v>321300</v>
       </c>
       <c r="J89" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K89" s="3">
         <v>191400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>248600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>236800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
       </c>
       <c r="M91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46400</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
-        <v>-9000</v>
+        <v>-47500</v>
       </c>
       <c r="F94" s="3">
-        <v>-692100</v>
+        <v>-9300</v>
       </c>
       <c r="G94" s="3">
-        <v>-227300</v>
+        <v>-708400</v>
       </c>
       <c r="H94" s="3">
-        <v>-175700</v>
+        <v>-232700</v>
       </c>
       <c r="I94" s="3">
-        <v>-149900</v>
+        <v>-179900</v>
       </c>
       <c r="J94" s="3">
+        <v>-153400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3679,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-58900</v>
+        <v>-65400</v>
       </c>
       <c r="E96" s="3">
-        <v>-59100</v>
+        <v>-60300</v>
       </c>
       <c r="F96" s="3">
-        <v>-57600</v>
+        <v>-60500</v>
       </c>
       <c r="G96" s="3">
-        <v>-53300</v>
+        <v>-59000</v>
       </c>
       <c r="H96" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-50700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-45300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58700</v>
+        <v>-62100</v>
       </c>
       <c r="E100" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="F100" s="3">
-        <v>-57200</v>
+        <v>-61700</v>
       </c>
       <c r="G100" s="3">
-        <v>-53400</v>
+        <v>-58600</v>
       </c>
       <c r="H100" s="3">
-        <v>-50600</v>
+        <v>-54700</v>
       </c>
       <c r="I100" s="3">
-        <v>-12000</v>
+        <v>-51800</v>
       </c>
       <c r="J100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K100" s="3">
         <v>44300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-98700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-182900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>2600</v>
       </c>
       <c r="E101" s="3">
-        <v>-4500</v>
+        <v>-5100</v>
       </c>
       <c r="F101" s="3">
-        <v>2500</v>
+        <v>-4600</v>
       </c>
       <c r="G101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>245400</v>
+        <v>239200</v>
       </c>
       <c r="E102" s="3">
-        <v>189900</v>
+        <v>251200</v>
       </c>
       <c r="F102" s="3">
-        <v>-434300</v>
+        <v>194400</v>
       </c>
       <c r="G102" s="3">
-        <v>5500</v>
+        <v>-444500</v>
       </c>
       <c r="H102" s="3">
-        <v>85900</v>
+        <v>5600</v>
       </c>
       <c r="I102" s="3">
-        <v>112500</v>
+        <v>87900</v>
       </c>
       <c r="J102" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K102" s="3">
         <v>215000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>99000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>441900</v>
+        <v>455300</v>
       </c>
       <c r="E8" s="3">
-        <v>427500</v>
+        <v>437900</v>
       </c>
       <c r="F8" s="3">
-        <v>412600</v>
+        <v>423500</v>
       </c>
       <c r="G8" s="3">
-        <v>452800</v>
+        <v>408800</v>
       </c>
       <c r="H8" s="3">
-        <v>402900</v>
+        <v>448600</v>
       </c>
       <c r="I8" s="3">
-        <v>397200</v>
+        <v>399200</v>
       </c>
       <c r="J8" s="3">
+        <v>393500</v>
+      </c>
+      <c r="K8" s="3">
         <v>365000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>249000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>306300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>331000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>154200</v>
+        <v>148800</v>
       </c>
       <c r="E9" s="3">
-        <v>165100</v>
+        <v>152800</v>
       </c>
       <c r="F9" s="3">
-        <v>150000</v>
+        <v>163600</v>
       </c>
       <c r="G9" s="3">
-        <v>162400</v>
+        <v>148600</v>
       </c>
       <c r="H9" s="3">
-        <v>145800</v>
+        <v>160900</v>
       </c>
       <c r="I9" s="3">
-        <v>149000</v>
+        <v>144500</v>
       </c>
       <c r="J9" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K9" s="3">
         <v>126900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>287800</v>
+        <v>306600</v>
       </c>
       <c r="E10" s="3">
-        <v>262300</v>
+        <v>285100</v>
       </c>
       <c r="F10" s="3">
-        <v>262600</v>
+        <v>259900</v>
       </c>
       <c r="G10" s="3">
-        <v>290400</v>
+        <v>260200</v>
       </c>
       <c r="H10" s="3">
-        <v>257100</v>
+        <v>287700</v>
       </c>
       <c r="I10" s="3">
-        <v>248200</v>
+        <v>254700</v>
       </c>
       <c r="J10" s="3">
+        <v>245900</v>
+      </c>
+      <c r="K10" s="3">
         <v>238100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>146700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>168800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-98500</v>
-      </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-97600</v>
       </c>
       <c r="G14" s="3">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="I14" s="3">
-        <v>-12500</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-12400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>346100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>165400</v>
+        <v>156000</v>
       </c>
       <c r="E17" s="3">
-        <v>79000</v>
+        <v>163900</v>
       </c>
       <c r="F17" s="3">
-        <v>155900</v>
+        <v>78300</v>
       </c>
       <c r="G17" s="3">
-        <v>185000</v>
+        <v>154400</v>
       </c>
       <c r="H17" s="3">
-        <v>153100</v>
+        <v>183300</v>
       </c>
       <c r="I17" s="3">
-        <v>141800</v>
+        <v>151700</v>
       </c>
       <c r="J17" s="3">
+        <v>140500</v>
+      </c>
+      <c r="K17" s="3">
         <v>132400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>114200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>489000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>165600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>276500</v>
+        <v>299300</v>
       </c>
       <c r="E18" s="3">
-        <v>348400</v>
+        <v>274000</v>
       </c>
       <c r="F18" s="3">
-        <v>256700</v>
+        <v>345200</v>
       </c>
       <c r="G18" s="3">
-        <v>267800</v>
+        <v>254300</v>
       </c>
       <c r="H18" s="3">
-        <v>249800</v>
+        <v>265300</v>
       </c>
       <c r="I18" s="3">
-        <v>255400</v>
+        <v>247500</v>
       </c>
       <c r="J18" s="3">
+        <v>253100</v>
+      </c>
+      <c r="K18" s="3">
         <v>232600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-182700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>165500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8200</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>382100</v>
+        <v>391700</v>
       </c>
       <c r="E21" s="3">
-        <v>448800</v>
+        <v>378500</v>
       </c>
       <c r="F21" s="3">
-        <v>351500</v>
+        <v>444700</v>
       </c>
       <c r="G21" s="3">
-        <v>368500</v>
+        <v>348300</v>
       </c>
       <c r="H21" s="3">
-        <v>342700</v>
+        <v>365100</v>
       </c>
       <c r="I21" s="3">
-        <v>346800</v>
+        <v>339500</v>
       </c>
       <c r="J21" s="3">
+        <v>343600</v>
+      </c>
+      <c r="K21" s="3">
         <v>308100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>202000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>262700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,16 +1241,16 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1219,89 +1259,98 @@
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>284400</v>
+        <v>301400</v>
       </c>
       <c r="E23" s="3">
-        <v>346400</v>
+        <v>281700</v>
       </c>
       <c r="F23" s="3">
-        <v>255900</v>
+        <v>343300</v>
       </c>
       <c r="G23" s="3">
-        <v>267000</v>
+        <v>253600</v>
       </c>
       <c r="H23" s="3">
-        <v>249500</v>
+        <v>264600</v>
       </c>
       <c r="I23" s="3">
-        <v>258500</v>
+        <v>247200</v>
       </c>
       <c r="J23" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K23" s="3">
         <v>233600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-183000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>167400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>47400</v>
       </c>
       <c r="E24" s="3">
-        <v>58300</v>
+        <v>46500</v>
       </c>
       <c r="F24" s="3">
-        <v>39400</v>
+        <v>57800</v>
       </c>
       <c r="G24" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="H24" s="3">
-        <v>25800</v>
+        <v>38000</v>
       </c>
       <c r="I24" s="3">
-        <v>28000</v>
+        <v>25600</v>
       </c>
       <c r="J24" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K24" s="3">
         <v>32900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-57200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>237400</v>
+        <v>254000</v>
       </c>
       <c r="E26" s="3">
-        <v>288100</v>
+        <v>235200</v>
       </c>
       <c r="F26" s="3">
-        <v>216500</v>
+        <v>285500</v>
       </c>
       <c r="G26" s="3">
-        <v>228700</v>
+        <v>214500</v>
       </c>
       <c r="H26" s="3">
-        <v>223700</v>
+        <v>226600</v>
       </c>
       <c r="I26" s="3">
-        <v>230500</v>
+        <v>221600</v>
       </c>
       <c r="J26" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K26" s="3">
         <v>200700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>120300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-125900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>145300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>237400</v>
+        <v>254000</v>
       </c>
       <c r="E27" s="3">
-        <v>288100</v>
+        <v>235200</v>
       </c>
       <c r="F27" s="3">
-        <v>216500</v>
+        <v>285500</v>
       </c>
       <c r="G27" s="3">
-        <v>228700</v>
+        <v>214500</v>
       </c>
       <c r="H27" s="3">
-        <v>223700</v>
+        <v>226600</v>
       </c>
       <c r="I27" s="3">
-        <v>230500</v>
+        <v>221600</v>
       </c>
       <c r="J27" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K27" s="3">
         <v>200700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-125900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8200</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>237400</v>
+        <v>254000</v>
       </c>
       <c r="E33" s="3">
-        <v>288100</v>
+        <v>235200</v>
       </c>
       <c r="F33" s="3">
-        <v>216500</v>
+        <v>285500</v>
       </c>
       <c r="G33" s="3">
-        <v>228700</v>
+        <v>214500</v>
       </c>
       <c r="H33" s="3">
-        <v>223700</v>
+        <v>226600</v>
       </c>
       <c r="I33" s="3">
-        <v>230500</v>
+        <v>221600</v>
       </c>
       <c r="J33" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K33" s="3">
         <v>200700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-125900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>237400</v>
+        <v>254000</v>
       </c>
       <c r="E35" s="3">
-        <v>288100</v>
+        <v>235200</v>
       </c>
       <c r="F35" s="3">
-        <v>216500</v>
+        <v>285500</v>
       </c>
       <c r="G35" s="3">
-        <v>228700</v>
+        <v>214500</v>
       </c>
       <c r="H35" s="3">
-        <v>223700</v>
+        <v>226600</v>
       </c>
       <c r="I35" s="3">
-        <v>230500</v>
+        <v>221600</v>
       </c>
       <c r="J35" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K35" s="3">
         <v>200700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-125900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>942700</v>
+        <v>1176900</v>
       </c>
       <c r="E41" s="3">
-        <v>703500</v>
+        <v>934000</v>
       </c>
       <c r="F41" s="3">
-        <v>452200</v>
+        <v>697000</v>
       </c>
       <c r="G41" s="3">
-        <v>257900</v>
+        <v>448100</v>
       </c>
       <c r="H41" s="3">
-        <v>702400</v>
+        <v>255500</v>
       </c>
       <c r="I41" s="3">
-        <v>696800</v>
+        <v>696000</v>
       </c>
       <c r="J41" s="3">
+        <v>690400</v>
+      </c>
+      <c r="K41" s="3">
         <v>608900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>482300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>267200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>241200</v>
+        <v>186500</v>
       </c>
       <c r="E43" s="3">
-        <v>208100</v>
+        <v>239000</v>
       </c>
       <c r="F43" s="3">
-        <v>243700</v>
+        <v>206100</v>
       </c>
       <c r="G43" s="3">
-        <v>150900</v>
+        <v>241400</v>
       </c>
       <c r="H43" s="3">
-        <v>133400</v>
+        <v>149500</v>
       </c>
       <c r="I43" s="3">
-        <v>121800</v>
+        <v>132200</v>
       </c>
       <c r="J43" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K43" s="3">
         <v>122000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>119000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>105900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,160 +2041,175 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54800</v>
+        <v>61900</v>
       </c>
       <c r="E45" s="3">
-        <v>68600</v>
+        <v>54300</v>
       </c>
       <c r="F45" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="G45" s="3">
-        <v>59400</v>
+        <v>66400</v>
       </c>
       <c r="H45" s="3">
-        <v>47200</v>
+        <v>58800</v>
       </c>
       <c r="I45" s="3">
-        <v>47100</v>
+        <v>46800</v>
       </c>
       <c r="J45" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K45" s="3">
         <v>53100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1238700</v>
+        <v>1425300</v>
       </c>
       <c r="E46" s="3">
-        <v>980100</v>
+        <v>1227300</v>
       </c>
       <c r="F46" s="3">
-        <v>762900</v>
+        <v>971100</v>
       </c>
       <c r="G46" s="3">
-        <v>468100</v>
+        <v>755900</v>
       </c>
       <c r="H46" s="3">
-        <v>883100</v>
+        <v>463800</v>
       </c>
       <c r="I46" s="3">
-        <v>865700</v>
+        <v>875000</v>
       </c>
       <c r="J46" s="3">
+        <v>857800</v>
+      </c>
+      <c r="K46" s="3">
         <v>783900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>657200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>433200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>357500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>338900</v>
+        <v>272200</v>
       </c>
       <c r="E47" s="3">
-        <v>306700</v>
+        <v>335800</v>
       </c>
       <c r="F47" s="3">
-        <v>266200</v>
+        <v>303800</v>
       </c>
       <c r="G47" s="3">
-        <v>397700</v>
+        <v>263800</v>
       </c>
       <c r="H47" s="3">
-        <v>319400</v>
+        <v>394100</v>
       </c>
       <c r="I47" s="3">
-        <v>303500</v>
+        <v>316500</v>
       </c>
       <c r="J47" s="3">
+        <v>300700</v>
+      </c>
+      <c r="K47" s="3">
         <v>242900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>225600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>163200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>231100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6655200</v>
+        <v>6468500</v>
       </c>
       <c r="E48" s="3">
-        <v>6726000</v>
+        <v>6594000</v>
       </c>
       <c r="F48" s="3">
-        <v>6693500</v>
+        <v>6664100</v>
       </c>
       <c r="G48" s="3">
-        <v>6821600</v>
+        <v>6632000</v>
       </c>
       <c r="H48" s="3">
-        <v>6203700</v>
+        <v>6758900</v>
       </c>
       <c r="I48" s="3">
-        <v>6051800</v>
+        <v>6146700</v>
       </c>
       <c r="J48" s="3">
+        <v>5996100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5895500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5646600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5676400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6169300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116000</v>
+        <v>119000</v>
       </c>
       <c r="E52" s="3">
-        <v>87400</v>
+        <v>114900</v>
       </c>
       <c r="F52" s="3">
-        <v>83700</v>
+        <v>86600</v>
       </c>
       <c r="G52" s="3">
-        <v>80400</v>
+        <v>83000</v>
       </c>
       <c r="H52" s="3">
-        <v>90400</v>
+        <v>79600</v>
       </c>
       <c r="I52" s="3">
+        <v>89600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>66000</v>
+      </c>
+      <c r="L52" s="3">
         <v>74400</v>
       </c>
-      <c r="J52" s="3">
-        <v>66000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>74400</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>72900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8348700</v>
+        <v>8284900</v>
       </c>
       <c r="E54" s="3">
-        <v>8100200</v>
+        <v>8271900</v>
       </c>
       <c r="F54" s="3">
-        <v>7806400</v>
+        <v>8025700</v>
       </c>
       <c r="G54" s="3">
-        <v>7767800</v>
+        <v>7734600</v>
       </c>
       <c r="H54" s="3">
-        <v>7496600</v>
+        <v>7696400</v>
       </c>
       <c r="I54" s="3">
-        <v>7295400</v>
+        <v>7427700</v>
       </c>
       <c r="J54" s="3">
+        <v>7228300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6988300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6603700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6345700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6772900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>48000</v>
+        <v>45100</v>
       </c>
       <c r="E57" s="3">
-        <v>43800</v>
+        <v>47600</v>
       </c>
       <c r="F57" s="3">
-        <v>38500</v>
+        <v>43400</v>
       </c>
       <c r="G57" s="3">
-        <v>42800</v>
+        <v>38100</v>
       </c>
       <c r="H57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>48300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>45000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>49200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>53600</v>
+      </c>
+      <c r="O57" s="3">
         <v>44100</v>
       </c>
-      <c r="I57" s="3">
-        <v>53200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>48300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>45000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>49200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>53600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,84 +2567,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9000</v>
+        <v>9700</v>
       </c>
       <c r="E59" s="3">
-        <v>12500</v>
+        <v>8900</v>
       </c>
       <c r="F59" s="3">
-        <v>17700</v>
+        <v>12400</v>
       </c>
       <c r="G59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
-        <v>9800</v>
-      </c>
       <c r="I59" s="3">
-        <v>16200</v>
+        <v>9700</v>
       </c>
       <c r="J59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57000</v>
+        <v>54800</v>
       </c>
       <c r="E60" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="F60" s="3">
-        <v>56200</v>
+        <v>55800</v>
       </c>
       <c r="G60" s="3">
-        <v>47500</v>
+        <v>55700</v>
       </c>
       <c r="H60" s="3">
-        <v>53900</v>
+        <v>47000</v>
       </c>
       <c r="I60" s="3">
-        <v>69400</v>
+        <v>53400</v>
       </c>
       <c r="J60" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K60" s="3">
         <v>54500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>51700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2542,51 +2685,57 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>105900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>197000</v>
+        <v>182700</v>
       </c>
       <c r="E62" s="3">
-        <v>184600</v>
+        <v>195200</v>
       </c>
       <c r="F62" s="3">
-        <v>146600</v>
+        <v>182900</v>
       </c>
       <c r="G62" s="3">
-        <v>155500</v>
+        <v>145300</v>
       </c>
       <c r="H62" s="3">
-        <v>134100</v>
+        <v>154100</v>
       </c>
       <c r="I62" s="3">
-        <v>125100</v>
+        <v>132900</v>
       </c>
       <c r="J62" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K62" s="3">
         <v>111100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>93900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>105700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>254000</v>
+        <v>237500</v>
       </c>
       <c r="E66" s="3">
-        <v>240900</v>
+        <v>251600</v>
       </c>
       <c r="F66" s="3">
-        <v>202800</v>
+        <v>238700</v>
       </c>
       <c r="G66" s="3">
-        <v>203000</v>
+        <v>201000</v>
       </c>
       <c r="H66" s="3">
-        <v>188000</v>
+        <v>201100</v>
       </c>
       <c r="I66" s="3">
-        <v>194500</v>
+        <v>186200</v>
       </c>
       <c r="J66" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K66" s="3">
         <v>165700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>142500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>134100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>280100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>789600</v>
+        <v>957400</v>
       </c>
       <c r="E72" s="3">
-        <v>632500</v>
+        <v>782300</v>
       </c>
       <c r="F72" s="3">
-        <v>419100</v>
+        <v>626700</v>
       </c>
       <c r="G72" s="3">
-        <v>277700</v>
+        <v>415200</v>
       </c>
       <c r="H72" s="3">
-        <v>122400</v>
+        <v>275200</v>
       </c>
       <c r="I72" s="3">
-        <v>-44900</v>
+        <v>121200</v>
       </c>
       <c r="J72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-209400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-338700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-395300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-210900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8094700</v>
+        <v>8047400</v>
       </c>
       <c r="E76" s="3">
-        <v>7859300</v>
+        <v>8020200</v>
       </c>
       <c r="F76" s="3">
-        <v>7603600</v>
+        <v>7787000</v>
       </c>
       <c r="G76" s="3">
-        <v>7564900</v>
+        <v>7533700</v>
       </c>
       <c r="H76" s="3">
-        <v>7308700</v>
+        <v>7495300</v>
       </c>
       <c r="I76" s="3">
-        <v>7100900</v>
+        <v>7241400</v>
       </c>
       <c r="J76" s="3">
+        <v>7035600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6822700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6461200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6211600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6492800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>237400</v>
+        <v>254000</v>
       </c>
       <c r="E81" s="3">
-        <v>288100</v>
+        <v>235200</v>
       </c>
       <c r="F81" s="3">
-        <v>216500</v>
+        <v>285500</v>
       </c>
       <c r="G81" s="3">
-        <v>228700</v>
+        <v>214500</v>
       </c>
       <c r="H81" s="3">
-        <v>223700</v>
+        <v>226600</v>
       </c>
       <c r="I81" s="3">
-        <v>230500</v>
+        <v>221600</v>
       </c>
       <c r="J81" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K81" s="3">
         <v>200700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-125900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97300</v>
+        <v>90000</v>
       </c>
       <c r="E83" s="3">
-        <v>102000</v>
+        <v>96400</v>
       </c>
       <c r="F83" s="3">
-        <v>95200</v>
+        <v>101100</v>
       </c>
       <c r="G83" s="3">
-        <v>100700</v>
+        <v>94300</v>
       </c>
       <c r="H83" s="3">
-        <v>92900</v>
+        <v>99800</v>
       </c>
       <c r="I83" s="3">
-        <v>88000</v>
+        <v>92000</v>
       </c>
       <c r="J83" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K83" s="3">
         <v>74100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300800</v>
+        <v>332500</v>
       </c>
       <c r="E89" s="3">
-        <v>363900</v>
+        <v>298000</v>
       </c>
       <c r="F89" s="3">
-        <v>269900</v>
+        <v>360600</v>
       </c>
       <c r="G89" s="3">
-        <v>319800</v>
+        <v>267400</v>
       </c>
       <c r="H89" s="3">
-        <v>292600</v>
+        <v>316900</v>
       </c>
       <c r="I89" s="3">
-        <v>321300</v>
+        <v>289900</v>
       </c>
       <c r="J89" s="3">
+        <v>318300</v>
+      </c>
+      <c r="K89" s="3">
         <v>276800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>191400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>248600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>236800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,37 +3742,40 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-500</v>
       </c>
       <c r="N91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-47500</v>
-      </c>
       <c r="F94" s="3">
-        <v>-9300</v>
+        <v>-47000</v>
       </c>
       <c r="G94" s="3">
-        <v>-708400</v>
+        <v>-9200</v>
       </c>
       <c r="H94" s="3">
-        <v>-232700</v>
+        <v>-701900</v>
       </c>
       <c r="I94" s="3">
-        <v>-179900</v>
+        <v>-230600</v>
       </c>
       <c r="J94" s="3">
+        <v>-178200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-153400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +3913,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-65400</v>
+        <v>-66300</v>
       </c>
       <c r="E96" s="3">
-        <v>-60300</v>
+        <v>-64700</v>
       </c>
       <c r="F96" s="3">
-        <v>-60500</v>
+        <v>-59700</v>
       </c>
       <c r="G96" s="3">
-        <v>-59000</v>
+        <v>-60000</v>
       </c>
       <c r="H96" s="3">
-        <v>-54500</v>
+        <v>-58400</v>
       </c>
       <c r="I96" s="3">
-        <v>-51900</v>
+        <v>-54000</v>
       </c>
       <c r="J96" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-51000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-50700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-45300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62100</v>
+        <v>-62800</v>
       </c>
       <c r="E100" s="3">
-        <v>-60100</v>
+        <v>-61500</v>
       </c>
       <c r="F100" s="3">
-        <v>-61700</v>
+        <v>-59600</v>
       </c>
       <c r="G100" s="3">
-        <v>-58600</v>
+        <v>-61100</v>
       </c>
       <c r="H100" s="3">
-        <v>-54700</v>
+        <v>-58000</v>
       </c>
       <c r="I100" s="3">
-        <v>-51800</v>
+        <v>-54200</v>
       </c>
       <c r="J100" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-12300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-98700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-182900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-5100</v>
-      </c>
       <c r="F101" s="3">
-        <v>-4600</v>
+        <v>-5000</v>
       </c>
       <c r="G101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>239200</v>
+        <v>242800</v>
       </c>
       <c r="E102" s="3">
-        <v>251200</v>
+        <v>237000</v>
       </c>
       <c r="F102" s="3">
-        <v>194400</v>
+        <v>248900</v>
       </c>
       <c r="G102" s="3">
-        <v>-444500</v>
+        <v>192600</v>
       </c>
       <c r="H102" s="3">
+        <v>-440400</v>
+      </c>
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3">
-        <v>87900</v>
-      </c>
       <c r="J102" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K102" s="3">
         <v>115200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>215000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>99000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>455300</v>
+        <v>405100</v>
       </c>
       <c r="E8" s="3">
-        <v>437900</v>
+        <v>469200</v>
       </c>
       <c r="F8" s="3">
-        <v>423500</v>
+        <v>451200</v>
       </c>
       <c r="G8" s="3">
-        <v>408800</v>
+        <v>436400</v>
       </c>
       <c r="H8" s="3">
-        <v>448600</v>
+        <v>421200</v>
       </c>
       <c r="I8" s="3">
-        <v>399200</v>
+        <v>462300</v>
       </c>
       <c r="J8" s="3">
+        <v>411400</v>
+      </c>
+      <c r="K8" s="3">
         <v>393500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>365000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>249000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>331000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>148800</v>
+        <v>147200</v>
       </c>
       <c r="E9" s="3">
-        <v>152800</v>
+        <v>153300</v>
       </c>
       <c r="F9" s="3">
-        <v>163600</v>
+        <v>157400</v>
       </c>
       <c r="G9" s="3">
-        <v>148600</v>
+        <v>168600</v>
       </c>
       <c r="H9" s="3">
-        <v>160900</v>
+        <v>153200</v>
       </c>
       <c r="I9" s="3">
-        <v>144500</v>
+        <v>165800</v>
       </c>
       <c r="J9" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K9" s="3">
         <v>147600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>126900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>137600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>152600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>306600</v>
+        <v>258000</v>
       </c>
       <c r="E10" s="3">
-        <v>285100</v>
+        <v>315900</v>
       </c>
       <c r="F10" s="3">
-        <v>259900</v>
+        <v>293800</v>
       </c>
       <c r="G10" s="3">
-        <v>260200</v>
+        <v>267800</v>
       </c>
       <c r="H10" s="3">
-        <v>287700</v>
+        <v>268100</v>
       </c>
       <c r="I10" s="3">
-        <v>254700</v>
+        <v>296500</v>
       </c>
       <c r="J10" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K10" s="3">
         <v>245900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>238100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>146700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>168800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>178400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-97600</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-100600</v>
       </c>
       <c r="H14" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>346100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156000</v>
+        <v>154500</v>
       </c>
       <c r="E17" s="3">
-        <v>163900</v>
+        <v>160700</v>
       </c>
       <c r="F17" s="3">
-        <v>78300</v>
+        <v>168900</v>
       </c>
       <c r="G17" s="3">
-        <v>154400</v>
+        <v>80700</v>
       </c>
       <c r="H17" s="3">
-        <v>183300</v>
+        <v>159200</v>
       </c>
       <c r="I17" s="3">
-        <v>151700</v>
+        <v>188800</v>
       </c>
       <c r="J17" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K17" s="3">
         <v>140500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>114200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>489000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>165600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>299300</v>
+        <v>250600</v>
       </c>
       <c r="E18" s="3">
-        <v>274000</v>
+        <v>308400</v>
       </c>
       <c r="F18" s="3">
-        <v>345200</v>
+        <v>282300</v>
       </c>
       <c r="G18" s="3">
-        <v>254300</v>
+        <v>355700</v>
       </c>
       <c r="H18" s="3">
-        <v>265300</v>
+        <v>262100</v>
       </c>
       <c r="I18" s="3">
-        <v>247500</v>
+        <v>273400</v>
       </c>
       <c r="J18" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K18" s="3">
         <v>253100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>232600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-182700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>165500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,95 +1177,102 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
-        <v>8100</v>
-      </c>
       <c r="F20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>391700</v>
+        <v>341100</v>
       </c>
       <c r="E21" s="3">
-        <v>378500</v>
+        <v>403700</v>
       </c>
       <c r="F21" s="3">
-        <v>444700</v>
+        <v>390100</v>
       </c>
       <c r="G21" s="3">
-        <v>348300</v>
+        <v>458300</v>
       </c>
       <c r="H21" s="3">
-        <v>365100</v>
+        <v>358900</v>
       </c>
       <c r="I21" s="3">
-        <v>339500</v>
+        <v>376200</v>
       </c>
       <c r="J21" s="3">
+        <v>349900</v>
+      </c>
+      <c r="K21" s="3">
         <v>343600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>308100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>202000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>262700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1244,16 +1284,16 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1262,95 +1302,104 @@
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>301400</v>
+        <v>249700</v>
       </c>
       <c r="E23" s="3">
-        <v>281700</v>
+        <v>310600</v>
       </c>
       <c r="F23" s="3">
-        <v>343300</v>
+        <v>290300</v>
       </c>
       <c r="G23" s="3">
-        <v>253600</v>
+        <v>353700</v>
       </c>
       <c r="H23" s="3">
-        <v>264600</v>
+        <v>261300</v>
       </c>
       <c r="I23" s="3">
-        <v>247200</v>
+        <v>272600</v>
       </c>
       <c r="J23" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K23" s="3">
         <v>256200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>233600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>134900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-183000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>167400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47400</v>
+        <v>40500</v>
       </c>
       <c r="E24" s="3">
-        <v>46500</v>
+        <v>48900</v>
       </c>
       <c r="F24" s="3">
-        <v>57800</v>
+        <v>47900</v>
       </c>
       <c r="G24" s="3">
-        <v>39000</v>
+        <v>59500</v>
       </c>
       <c r="H24" s="3">
-        <v>38000</v>
+        <v>40200</v>
       </c>
       <c r="I24" s="3">
-        <v>25600</v>
+        <v>39200</v>
       </c>
       <c r="J24" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K24" s="3">
         <v>27800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-57200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>254000</v>
+        <v>209200</v>
       </c>
       <c r="E26" s="3">
-        <v>235200</v>
+        <v>261700</v>
       </c>
       <c r="F26" s="3">
-        <v>285500</v>
+        <v>242400</v>
       </c>
       <c r="G26" s="3">
-        <v>214500</v>
+        <v>294200</v>
       </c>
       <c r="H26" s="3">
-        <v>226600</v>
+        <v>221100</v>
       </c>
       <c r="I26" s="3">
-        <v>221600</v>
+        <v>233500</v>
       </c>
       <c r="J26" s="3">
         <v>228400</v>
       </c>
       <c r="K26" s="3">
+        <v>228400</v>
+      </c>
+      <c r="L26" s="3">
         <v>200700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-125900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>254000</v>
+        <v>209200</v>
       </c>
       <c r="E27" s="3">
-        <v>235200</v>
+        <v>261700</v>
       </c>
       <c r="F27" s="3">
-        <v>285500</v>
+        <v>242400</v>
       </c>
       <c r="G27" s="3">
-        <v>214500</v>
+        <v>294200</v>
       </c>
       <c r="H27" s="3">
-        <v>226600</v>
+        <v>221100</v>
       </c>
       <c r="I27" s="3">
-        <v>221600</v>
+        <v>233500</v>
       </c>
       <c r="J27" s="3">
         <v>228400</v>
       </c>
       <c r="K27" s="3">
+        <v>228400</v>
+      </c>
+      <c r="L27" s="3">
         <v>200700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-125900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>145300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8100</v>
-      </c>
       <c r="F32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>254000</v>
+        <v>209200</v>
       </c>
       <c r="E33" s="3">
-        <v>235200</v>
+        <v>261700</v>
       </c>
       <c r="F33" s="3">
-        <v>285500</v>
+        <v>242400</v>
       </c>
       <c r="G33" s="3">
-        <v>214500</v>
+        <v>294200</v>
       </c>
       <c r="H33" s="3">
-        <v>226600</v>
+        <v>221100</v>
       </c>
       <c r="I33" s="3">
-        <v>221600</v>
+        <v>233500</v>
       </c>
       <c r="J33" s="3">
         <v>228400</v>
       </c>
       <c r="K33" s="3">
+        <v>228400</v>
+      </c>
+      <c r="L33" s="3">
         <v>200700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-125900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>145300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>254000</v>
+        <v>209200</v>
       </c>
       <c r="E35" s="3">
-        <v>235200</v>
+        <v>261700</v>
       </c>
       <c r="F35" s="3">
-        <v>285500</v>
+        <v>242400</v>
       </c>
       <c r="G35" s="3">
-        <v>214500</v>
+        <v>294200</v>
       </c>
       <c r="H35" s="3">
-        <v>226600</v>
+        <v>221100</v>
       </c>
       <c r="I35" s="3">
-        <v>221600</v>
+        <v>233500</v>
       </c>
       <c r="J35" s="3">
         <v>228400</v>
       </c>
       <c r="K35" s="3">
+        <v>228400</v>
+      </c>
+      <c r="L35" s="3">
         <v>200700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-125900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>145300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1176900</v>
+        <v>1408200</v>
       </c>
       <c r="E41" s="3">
-        <v>934000</v>
+        <v>1212700</v>
       </c>
       <c r="F41" s="3">
-        <v>697000</v>
+        <v>962500</v>
       </c>
       <c r="G41" s="3">
-        <v>448100</v>
+        <v>718200</v>
       </c>
       <c r="H41" s="3">
-        <v>255500</v>
+        <v>461700</v>
       </c>
       <c r="I41" s="3">
-        <v>696000</v>
+        <v>263300</v>
       </c>
       <c r="J41" s="3">
+        <v>717200</v>
+      </c>
+      <c r="K41" s="3">
         <v>690400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>608900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>482300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>267200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>186500</v>
+        <v>199800</v>
       </c>
       <c r="E43" s="3">
-        <v>239000</v>
+        <v>192200</v>
       </c>
       <c r="F43" s="3">
-        <v>206100</v>
+        <v>246200</v>
       </c>
       <c r="G43" s="3">
-        <v>241400</v>
+        <v>212400</v>
       </c>
       <c r="H43" s="3">
-        <v>149500</v>
+        <v>248800</v>
       </c>
       <c r="I43" s="3">
-        <v>132200</v>
+        <v>154100</v>
       </c>
       <c r="J43" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K43" s="3">
         <v>120700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>119000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>105900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>125400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,172 +2140,187 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61900</v>
+        <v>74300</v>
       </c>
       <c r="E45" s="3">
-        <v>54300</v>
+        <v>63800</v>
       </c>
       <c r="F45" s="3">
-        <v>68000</v>
+        <v>55900</v>
       </c>
       <c r="G45" s="3">
-        <v>66400</v>
+        <v>70100</v>
       </c>
       <c r="H45" s="3">
-        <v>58800</v>
+        <v>68500</v>
       </c>
       <c r="I45" s="3">
-        <v>46800</v>
+        <v>60600</v>
       </c>
       <c r="J45" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K45" s="3">
         <v>46700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1425300</v>
+        <v>1682300</v>
       </c>
       <c r="E46" s="3">
-        <v>1227300</v>
+        <v>1468700</v>
       </c>
       <c r="F46" s="3">
-        <v>971100</v>
+        <v>1264700</v>
       </c>
       <c r="G46" s="3">
-        <v>755900</v>
+        <v>1000700</v>
       </c>
       <c r="H46" s="3">
-        <v>463800</v>
+        <v>779000</v>
       </c>
       <c r="I46" s="3">
-        <v>875000</v>
+        <v>478000</v>
       </c>
       <c r="J46" s="3">
+        <v>901600</v>
+      </c>
+      <c r="K46" s="3">
         <v>857800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>783900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>657200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>433200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>357500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>272200</v>
+        <v>296500</v>
       </c>
       <c r="E47" s="3">
-        <v>335800</v>
+        <v>280500</v>
       </c>
       <c r="F47" s="3">
-        <v>303800</v>
+        <v>346000</v>
       </c>
       <c r="G47" s="3">
-        <v>263800</v>
+        <v>313100</v>
       </c>
       <c r="H47" s="3">
-        <v>394100</v>
+        <v>271800</v>
       </c>
       <c r="I47" s="3">
-        <v>316500</v>
+        <v>406100</v>
       </c>
       <c r="J47" s="3">
+        <v>326200</v>
+      </c>
+      <c r="K47" s="3">
         <v>300700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>242900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>225600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>163200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>231100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6468500</v>
+        <v>6487500</v>
       </c>
       <c r="E48" s="3">
-        <v>6594000</v>
+        <v>6665700</v>
       </c>
       <c r="F48" s="3">
-        <v>6664100</v>
+        <v>6795000</v>
       </c>
       <c r="G48" s="3">
-        <v>6632000</v>
+        <v>6867300</v>
       </c>
       <c r="H48" s="3">
-        <v>6758900</v>
+        <v>6834100</v>
       </c>
       <c r="I48" s="3">
-        <v>6146700</v>
+        <v>6964900</v>
       </c>
       <c r="J48" s="3">
+        <v>6334000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5996100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5895500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5646600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5676400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6169300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119000</v>
+        <v>115500</v>
       </c>
       <c r="E52" s="3">
-        <v>114900</v>
+        <v>122700</v>
       </c>
       <c r="F52" s="3">
-        <v>86600</v>
+        <v>118400</v>
       </c>
       <c r="G52" s="3">
-        <v>83000</v>
+        <v>89200</v>
       </c>
       <c r="H52" s="3">
-        <v>79600</v>
+        <v>85500</v>
       </c>
       <c r="I52" s="3">
-        <v>89600</v>
+        <v>82000</v>
       </c>
       <c r="J52" s="3">
+        <v>92300</v>
+      </c>
+      <c r="K52" s="3">
         <v>73700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>72900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8284900</v>
+        <v>8581700</v>
       </c>
       <c r="E54" s="3">
-        <v>8271900</v>
+        <v>8537500</v>
       </c>
       <c r="F54" s="3">
-        <v>8025700</v>
+        <v>8524100</v>
       </c>
       <c r="G54" s="3">
-        <v>7734600</v>
+        <v>8270300</v>
       </c>
       <c r="H54" s="3">
-        <v>7696400</v>
+        <v>7970400</v>
       </c>
       <c r="I54" s="3">
-        <v>7427700</v>
+        <v>7931000</v>
       </c>
       <c r="J54" s="3">
+        <v>7654100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7228300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6988300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6603700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6345700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6772900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45100</v>
+        <v>53300</v>
       </c>
       <c r="E57" s="3">
-        <v>47600</v>
+        <v>46500</v>
       </c>
       <c r="F57" s="3">
-        <v>43400</v>
+        <v>49000</v>
       </c>
       <c r="G57" s="3">
-        <v>38100</v>
+        <v>44700</v>
       </c>
       <c r="H57" s="3">
-        <v>42400</v>
+        <v>39300</v>
       </c>
       <c r="I57" s="3">
         <v>43700</v>
       </c>
       <c r="J57" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K57" s="3">
         <v>52700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,90 +2704,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9700</v>
+        <v>15800</v>
       </c>
       <c r="E59" s="3">
-        <v>8900</v>
+        <v>10000</v>
       </c>
       <c r="F59" s="3">
-        <v>12400</v>
+        <v>9200</v>
       </c>
       <c r="G59" s="3">
-        <v>17600</v>
+        <v>12800</v>
       </c>
       <c r="H59" s="3">
-        <v>4700</v>
+        <v>18100</v>
       </c>
       <c r="I59" s="3">
-        <v>9700</v>
+        <v>4800</v>
       </c>
       <c r="J59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K59" s="3">
         <v>16000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54800</v>
+        <v>69100</v>
       </c>
       <c r="E60" s="3">
         <v>56500</v>
       </c>
       <c r="F60" s="3">
-        <v>55800</v>
+        <v>58200</v>
       </c>
       <c r="G60" s="3">
-        <v>55700</v>
+        <v>57500</v>
       </c>
       <c r="H60" s="3">
-        <v>47000</v>
+        <v>57400</v>
       </c>
       <c r="I60" s="3">
-        <v>53400</v>
+        <v>48500</v>
       </c>
       <c r="J60" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K60" s="3">
         <v>68800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2688,54 +2831,60 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>105900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182700</v>
+        <v>187000</v>
       </c>
       <c r="E62" s="3">
-        <v>195200</v>
+        <v>188300</v>
       </c>
       <c r="F62" s="3">
-        <v>182900</v>
+        <v>201100</v>
       </c>
       <c r="G62" s="3">
-        <v>145300</v>
+        <v>188400</v>
       </c>
       <c r="H62" s="3">
-        <v>154100</v>
+        <v>149700</v>
       </c>
       <c r="I62" s="3">
-        <v>132900</v>
+        <v>158800</v>
       </c>
       <c r="J62" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K62" s="3">
         <v>123900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>93900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>105700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>237500</v>
+        <v>256100</v>
       </c>
       <c r="E66" s="3">
-        <v>251600</v>
+        <v>244800</v>
       </c>
       <c r="F66" s="3">
-        <v>238700</v>
+        <v>259300</v>
       </c>
       <c r="G66" s="3">
-        <v>201000</v>
+        <v>246000</v>
       </c>
       <c r="H66" s="3">
-        <v>201100</v>
+        <v>207100</v>
       </c>
       <c r="I66" s="3">
-        <v>186200</v>
+        <v>207200</v>
       </c>
       <c r="J66" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K66" s="3">
         <v>192700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>165700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>142500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>134100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>280100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>957400</v>
+        <v>1114600</v>
       </c>
       <c r="E72" s="3">
-        <v>782300</v>
+        <v>986600</v>
       </c>
       <c r="F72" s="3">
-        <v>626700</v>
+        <v>806100</v>
       </c>
       <c r="G72" s="3">
-        <v>415200</v>
+        <v>645800</v>
       </c>
       <c r="H72" s="3">
-        <v>275200</v>
+        <v>427900</v>
       </c>
       <c r="I72" s="3">
-        <v>121200</v>
+        <v>283500</v>
       </c>
       <c r="J72" s="3">
+        <v>124900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-44500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-209400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-338700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-395300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-210900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8047400</v>
+        <v>8325600</v>
       </c>
       <c r="E76" s="3">
-        <v>8020200</v>
+        <v>8292700</v>
       </c>
       <c r="F76" s="3">
-        <v>7787000</v>
+        <v>8264800</v>
       </c>
       <c r="G76" s="3">
-        <v>7533700</v>
+        <v>8024400</v>
       </c>
       <c r="H76" s="3">
-        <v>7495300</v>
+        <v>7763300</v>
       </c>
       <c r="I76" s="3">
-        <v>7241400</v>
+        <v>7723800</v>
       </c>
       <c r="J76" s="3">
+        <v>7462200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7035600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6822700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6461200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6211600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6492800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>254000</v>
+        <v>209200</v>
       </c>
       <c r="E81" s="3">
-        <v>235200</v>
+        <v>261700</v>
       </c>
       <c r="F81" s="3">
-        <v>285500</v>
+        <v>242400</v>
       </c>
       <c r="G81" s="3">
-        <v>214500</v>
+        <v>294200</v>
       </c>
       <c r="H81" s="3">
-        <v>226600</v>
+        <v>221100</v>
       </c>
       <c r="I81" s="3">
-        <v>221600</v>
+        <v>233500</v>
       </c>
       <c r="J81" s="3">
         <v>228400</v>
       </c>
       <c r="K81" s="3">
+        <v>228400</v>
+      </c>
+      <c r="L81" s="3">
         <v>200700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-125900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>145300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>90000</v>
+        <v>91200</v>
       </c>
       <c r="E83" s="3">
-        <v>96400</v>
+        <v>92700</v>
       </c>
       <c r="F83" s="3">
-        <v>101100</v>
+        <v>99400</v>
       </c>
       <c r="G83" s="3">
-        <v>94300</v>
+        <v>104100</v>
       </c>
       <c r="H83" s="3">
-        <v>99800</v>
+        <v>97200</v>
       </c>
       <c r="I83" s="3">
-        <v>92000</v>
+        <v>102800</v>
       </c>
       <c r="J83" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K83" s="3">
         <v>87200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>332500</v>
+        <v>309400</v>
       </c>
       <c r="E89" s="3">
-        <v>298000</v>
+        <v>342700</v>
       </c>
       <c r="F89" s="3">
-        <v>360600</v>
+        <v>307100</v>
       </c>
       <c r="G89" s="3">
-        <v>267400</v>
+        <v>371600</v>
       </c>
       <c r="H89" s="3">
-        <v>316900</v>
+        <v>275500</v>
       </c>
       <c r="I89" s="3">
-        <v>289900</v>
+        <v>326600</v>
       </c>
       <c r="J89" s="3">
+        <v>298700</v>
+      </c>
+      <c r="K89" s="3">
         <v>318300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>276800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>191400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>248600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>236800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
       </c>
       <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-500</v>
       </c>
       <c r="O91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19100</v>
+        <v>-41200</v>
       </c>
       <c r="E94" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-47000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-9200</v>
+        <v>-48500</v>
       </c>
       <c r="H94" s="3">
-        <v>-701900</v>
+        <v>-9500</v>
       </c>
       <c r="I94" s="3">
-        <v>-230600</v>
+        <v>-723300</v>
       </c>
       <c r="J94" s="3">
+        <v>-237600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-178200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-153400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-66300</v>
+        <v>-64200</v>
       </c>
       <c r="E96" s="3">
-        <v>-64700</v>
+        <v>-68300</v>
       </c>
       <c r="F96" s="3">
-        <v>-59700</v>
+        <v>-66700</v>
       </c>
       <c r="G96" s="3">
-        <v>-60000</v>
+        <v>-61500</v>
       </c>
       <c r="H96" s="3">
-        <v>-58400</v>
+        <v>-61800</v>
       </c>
       <c r="I96" s="3">
-        <v>-54000</v>
+        <v>-60200</v>
       </c>
       <c r="J96" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-51400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-50700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-46100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-45300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62800</v>
+        <v>-65400</v>
       </c>
       <c r="E100" s="3">
-        <v>-61500</v>
+        <v>-64700</v>
       </c>
       <c r="F100" s="3">
-        <v>-59600</v>
+        <v>-63400</v>
       </c>
       <c r="G100" s="3">
-        <v>-61100</v>
+        <v>-61400</v>
       </c>
       <c r="H100" s="3">
-        <v>-58000</v>
+        <v>-63000</v>
       </c>
       <c r="I100" s="3">
-        <v>-54200</v>
+        <v>-59800</v>
       </c>
       <c r="J100" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-51300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>44300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-182900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="E101" s="3">
-        <v>2600</v>
+        <v>-8000</v>
       </c>
       <c r="F101" s="3">
-        <v>-5000</v>
+        <v>2700</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-5200</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>-4700</v>
       </c>
       <c r="I101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>242800</v>
+        <v>195500</v>
       </c>
       <c r="E102" s="3">
-        <v>237000</v>
+        <v>250200</v>
       </c>
       <c r="F102" s="3">
-        <v>248900</v>
+        <v>244300</v>
       </c>
       <c r="G102" s="3">
-        <v>192600</v>
+        <v>256500</v>
       </c>
       <c r="H102" s="3">
-        <v>-440400</v>
+        <v>198400</v>
       </c>
       <c r="I102" s="3">
-        <v>5600</v>
+        <v>-453900</v>
       </c>
       <c r="J102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K102" s="3">
         <v>87100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>215000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>99000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>405100</v>
+        <v>420600</v>
       </c>
       <c r="E8" s="3">
-        <v>469200</v>
+        <v>487100</v>
       </c>
       <c r="F8" s="3">
-        <v>451200</v>
+        <v>468500</v>
       </c>
       <c r="G8" s="3">
-        <v>436400</v>
+        <v>453100</v>
       </c>
       <c r="H8" s="3">
-        <v>421200</v>
+        <v>437300</v>
       </c>
       <c r="I8" s="3">
-        <v>462300</v>
+        <v>479900</v>
       </c>
       <c r="J8" s="3">
-        <v>411400</v>
+        <v>427100</v>
       </c>
       <c r="K8" s="3">
         <v>393500</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>147200</v>
+        <v>152800</v>
       </c>
       <c r="E9" s="3">
-        <v>153300</v>
+        <v>159100</v>
       </c>
       <c r="F9" s="3">
-        <v>157400</v>
+        <v>163400</v>
       </c>
       <c r="G9" s="3">
-        <v>168600</v>
+        <v>175000</v>
       </c>
       <c r="H9" s="3">
-        <v>153200</v>
+        <v>159000</v>
       </c>
       <c r="I9" s="3">
-        <v>165800</v>
+        <v>172100</v>
       </c>
       <c r="J9" s="3">
-        <v>148900</v>
+        <v>154600</v>
       </c>
       <c r="K9" s="3">
         <v>147600</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>258000</v>
+        <v>267800</v>
       </c>
       <c r="E10" s="3">
-        <v>315900</v>
+        <v>328000</v>
       </c>
       <c r="F10" s="3">
-        <v>293800</v>
+        <v>305000</v>
       </c>
       <c r="G10" s="3">
-        <v>267800</v>
+        <v>278100</v>
       </c>
       <c r="H10" s="3">
-        <v>268100</v>
+        <v>278300</v>
       </c>
       <c r="I10" s="3">
-        <v>296500</v>
+        <v>307800</v>
       </c>
       <c r="J10" s="3">
-        <v>262500</v>
+        <v>272500</v>
       </c>
       <c r="K10" s="3">
         <v>245900</v>
@@ -984,13 +984,13 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-100600</v>
+        <v>-104400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154500</v>
+        <v>160400</v>
       </c>
       <c r="E17" s="3">
-        <v>160700</v>
+        <v>166900</v>
       </c>
       <c r="F17" s="3">
-        <v>168900</v>
+        <v>175300</v>
       </c>
       <c r="G17" s="3">
-        <v>80700</v>
+        <v>83800</v>
       </c>
       <c r="H17" s="3">
-        <v>159200</v>
+        <v>165200</v>
       </c>
       <c r="I17" s="3">
-        <v>188800</v>
+        <v>196100</v>
       </c>
       <c r="J17" s="3">
-        <v>156400</v>
+        <v>162300</v>
       </c>
       <c r="K17" s="3">
         <v>140500</v>
@@ -1122,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>250600</v>
+        <v>260200</v>
       </c>
       <c r="E18" s="3">
-        <v>308400</v>
+        <v>320200</v>
       </c>
       <c r="F18" s="3">
-        <v>282300</v>
+        <v>293100</v>
       </c>
       <c r="G18" s="3">
-        <v>355700</v>
+        <v>369300</v>
       </c>
       <c r="H18" s="3">
-        <v>262100</v>
+        <v>272100</v>
       </c>
       <c r="I18" s="3">
-        <v>273400</v>
+        <v>283900</v>
       </c>
       <c r="J18" s="3">
-        <v>255000</v>
+        <v>264800</v>
       </c>
       <c r="K18" s="3">
         <v>253100</v>
@@ -1187,13 +1187,13 @@
         <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F20" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
@@ -1228,25 +1228,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>341100</v>
+        <v>354100</v>
       </c>
       <c r="E21" s="3">
-        <v>403700</v>
+        <v>419100</v>
       </c>
       <c r="F21" s="3">
-        <v>390100</v>
+        <v>405000</v>
       </c>
       <c r="G21" s="3">
-        <v>458300</v>
+        <v>475800</v>
       </c>
       <c r="H21" s="3">
-        <v>358900</v>
+        <v>372600</v>
       </c>
       <c r="I21" s="3">
-        <v>376200</v>
+        <v>390600</v>
       </c>
       <c r="J21" s="3">
-        <v>349900</v>
+        <v>363200</v>
       </c>
       <c r="K21" s="3">
         <v>343600</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>249700</v>
+        <v>259300</v>
       </c>
       <c r="E23" s="3">
-        <v>310600</v>
+        <v>322400</v>
       </c>
       <c r="F23" s="3">
-        <v>290300</v>
+        <v>301400</v>
       </c>
       <c r="G23" s="3">
-        <v>353700</v>
+        <v>367200</v>
       </c>
       <c r="H23" s="3">
-        <v>261300</v>
+        <v>271300</v>
       </c>
       <c r="I23" s="3">
-        <v>272600</v>
+        <v>283000</v>
       </c>
       <c r="J23" s="3">
-        <v>254800</v>
+        <v>264500</v>
       </c>
       <c r="K23" s="3">
         <v>256200</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="E24" s="3">
-        <v>48900</v>
+        <v>50700</v>
       </c>
       <c r="F24" s="3">
-        <v>47900</v>
+        <v>49800</v>
       </c>
       <c r="G24" s="3">
-        <v>59500</v>
+        <v>61800</v>
       </c>
       <c r="H24" s="3">
-        <v>40200</v>
+        <v>41800</v>
       </c>
       <c r="I24" s="3">
-        <v>39200</v>
+        <v>40700</v>
       </c>
       <c r="J24" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="K24" s="3">
         <v>27800</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>209200</v>
+        <v>217200</v>
       </c>
       <c r="E26" s="3">
-        <v>261700</v>
+        <v>271700</v>
       </c>
       <c r="F26" s="3">
+        <v>251700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>305400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>229500</v>
+      </c>
+      <c r="I26" s="3">
         <v>242400</v>
       </c>
-      <c r="G26" s="3">
-        <v>294200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>221100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>233500</v>
-      </c>
       <c r="J26" s="3">
-        <v>228400</v>
+        <v>237100</v>
       </c>
       <c r="K26" s="3">
         <v>228400</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>209200</v>
+        <v>217200</v>
       </c>
       <c r="E27" s="3">
-        <v>261700</v>
+        <v>271700</v>
       </c>
       <c r="F27" s="3">
+        <v>251700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>305400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>229500</v>
+      </c>
+      <c r="I27" s="3">
         <v>242400</v>
       </c>
-      <c r="G27" s="3">
-        <v>294200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>221100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>233500</v>
-      </c>
       <c r="J27" s="3">
-        <v>228400</v>
+        <v>237100</v>
       </c>
       <c r="K27" s="3">
         <v>228400</v>
@@ -1715,13 +1715,13 @@
         <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F32" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="G32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>209200</v>
+        <v>217200</v>
       </c>
       <c r="E33" s="3">
-        <v>261700</v>
+        <v>271700</v>
       </c>
       <c r="F33" s="3">
+        <v>251700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>305400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>229500</v>
+      </c>
+      <c r="I33" s="3">
         <v>242400</v>
       </c>
-      <c r="G33" s="3">
-        <v>294200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>221100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>233500</v>
-      </c>
       <c r="J33" s="3">
-        <v>228400</v>
+        <v>237100</v>
       </c>
       <c r="K33" s="3">
         <v>228400</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>209200</v>
+        <v>217200</v>
       </c>
       <c r="E35" s="3">
-        <v>261700</v>
+        <v>271700</v>
       </c>
       <c r="F35" s="3">
+        <v>251700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>305400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>229500</v>
+      </c>
+      <c r="I35" s="3">
         <v>242400</v>
       </c>
-      <c r="G35" s="3">
-        <v>294200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>221100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>233500</v>
-      </c>
       <c r="J35" s="3">
-        <v>228400</v>
+        <v>237100</v>
       </c>
       <c r="K35" s="3">
         <v>228400</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1408200</v>
+        <v>1462100</v>
       </c>
       <c r="E41" s="3">
-        <v>1212700</v>
+        <v>1259100</v>
       </c>
       <c r="F41" s="3">
-        <v>962500</v>
+        <v>999300</v>
       </c>
       <c r="G41" s="3">
-        <v>718200</v>
+        <v>745700</v>
       </c>
       <c r="H41" s="3">
-        <v>461700</v>
+        <v>479400</v>
       </c>
       <c r="I41" s="3">
-        <v>263300</v>
+        <v>273400</v>
       </c>
       <c r="J41" s="3">
-        <v>717200</v>
+        <v>744600</v>
       </c>
       <c r="K41" s="3">
         <v>690400</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199800</v>
+        <v>207400</v>
       </c>
       <c r="E43" s="3">
-        <v>192200</v>
+        <v>199500</v>
       </c>
       <c r="F43" s="3">
-        <v>246200</v>
+        <v>255700</v>
       </c>
       <c r="G43" s="3">
-        <v>212400</v>
+        <v>220500</v>
       </c>
       <c r="H43" s="3">
-        <v>248800</v>
+        <v>258300</v>
       </c>
       <c r="I43" s="3">
-        <v>154100</v>
+        <v>160000</v>
       </c>
       <c r="J43" s="3">
-        <v>136200</v>
+        <v>141500</v>
       </c>
       <c r="K43" s="3">
         <v>120700</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74300</v>
+        <v>77200</v>
       </c>
       <c r="E45" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="F45" s="3">
-        <v>55900</v>
+        <v>58100</v>
       </c>
       <c r="G45" s="3">
-        <v>70100</v>
+        <v>72700</v>
       </c>
       <c r="H45" s="3">
-        <v>68500</v>
+        <v>71100</v>
       </c>
       <c r="I45" s="3">
-        <v>60600</v>
+        <v>62900</v>
       </c>
       <c r="J45" s="3">
-        <v>48200</v>
+        <v>50100</v>
       </c>
       <c r="K45" s="3">
         <v>46700</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1682300</v>
+        <v>1746600</v>
       </c>
       <c r="E46" s="3">
-        <v>1468700</v>
+        <v>1524800</v>
       </c>
       <c r="F46" s="3">
-        <v>1264700</v>
+        <v>1313000</v>
       </c>
       <c r="G46" s="3">
-        <v>1000700</v>
+        <v>1039000</v>
       </c>
       <c r="H46" s="3">
-        <v>779000</v>
+        <v>808700</v>
       </c>
       <c r="I46" s="3">
-        <v>478000</v>
+        <v>496300</v>
       </c>
       <c r="J46" s="3">
-        <v>901600</v>
+        <v>936100</v>
       </c>
       <c r="K46" s="3">
         <v>857800</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>296500</v>
+        <v>307800</v>
       </c>
       <c r="E47" s="3">
-        <v>280500</v>
+        <v>291200</v>
       </c>
       <c r="F47" s="3">
-        <v>346000</v>
+        <v>359200</v>
       </c>
       <c r="G47" s="3">
-        <v>313100</v>
+        <v>325100</v>
       </c>
       <c r="H47" s="3">
-        <v>271800</v>
+        <v>282200</v>
       </c>
       <c r="I47" s="3">
-        <v>406100</v>
+        <v>421600</v>
       </c>
       <c r="J47" s="3">
-        <v>326200</v>
+        <v>338600</v>
       </c>
       <c r="K47" s="3">
         <v>300700</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6487500</v>
+        <v>6735400</v>
       </c>
       <c r="E48" s="3">
-        <v>6665700</v>
+        <v>6920400</v>
       </c>
       <c r="F48" s="3">
-        <v>6795000</v>
+        <v>7054700</v>
       </c>
       <c r="G48" s="3">
-        <v>6867300</v>
+        <v>7129800</v>
       </c>
       <c r="H48" s="3">
-        <v>6834100</v>
+        <v>7095300</v>
       </c>
       <c r="I48" s="3">
-        <v>6964900</v>
+        <v>7231100</v>
       </c>
       <c r="J48" s="3">
-        <v>6334000</v>
+        <v>6576100</v>
       </c>
       <c r="K48" s="3">
         <v>5996100</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115500</v>
+        <v>119900</v>
       </c>
       <c r="E52" s="3">
-        <v>122700</v>
+        <v>127300</v>
       </c>
       <c r="F52" s="3">
-        <v>118400</v>
+        <v>122900</v>
       </c>
       <c r="G52" s="3">
-        <v>89200</v>
+        <v>92600</v>
       </c>
       <c r="H52" s="3">
-        <v>85500</v>
+        <v>88800</v>
       </c>
       <c r="I52" s="3">
-        <v>82000</v>
+        <v>85200</v>
       </c>
       <c r="J52" s="3">
-        <v>92300</v>
+        <v>95800</v>
       </c>
       <c r="K52" s="3">
         <v>73700</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8581700</v>
+        <v>8909700</v>
       </c>
       <c r="E54" s="3">
-        <v>8537500</v>
+        <v>8863800</v>
       </c>
       <c r="F54" s="3">
-        <v>8524100</v>
+        <v>8849800</v>
       </c>
       <c r="G54" s="3">
-        <v>8270300</v>
+        <v>8586400</v>
       </c>
       <c r="H54" s="3">
-        <v>7970400</v>
+        <v>8275000</v>
       </c>
       <c r="I54" s="3">
-        <v>7931000</v>
+        <v>8234100</v>
       </c>
       <c r="J54" s="3">
-        <v>7654100</v>
+        <v>7946700</v>
       </c>
       <c r="K54" s="3">
         <v>7228300</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="E57" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>50900</v>
+      </c>
+      <c r="G57" s="3">
         <v>46500</v>
       </c>
-      <c r="F57" s="3">
-        <v>49000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>44700</v>
-      </c>
       <c r="H57" s="3">
-        <v>39300</v>
+        <v>40800</v>
       </c>
       <c r="I57" s="3">
-        <v>43700</v>
+        <v>45400</v>
       </c>
       <c r="J57" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="K57" s="3">
         <v>52700</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15800</v>
+        <v>16500</v>
       </c>
       <c r="E59" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="F59" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="G59" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="H59" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="I59" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J59" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="K59" s="3">
         <v>16000</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69100</v>
+        <v>71800</v>
       </c>
       <c r="E60" s="3">
-        <v>56500</v>
+        <v>58600</v>
       </c>
       <c r="F60" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="G60" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="H60" s="3">
-        <v>57400</v>
+        <v>59600</v>
       </c>
       <c r="I60" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="J60" s="3">
-        <v>55000</v>
+        <v>57100</v>
       </c>
       <c r="K60" s="3">
         <v>68800</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>187000</v>
+        <v>194100</v>
       </c>
       <c r="E62" s="3">
-        <v>188300</v>
+        <v>195500</v>
       </c>
       <c r="F62" s="3">
-        <v>201100</v>
+        <v>208800</v>
       </c>
       <c r="G62" s="3">
-        <v>188400</v>
+        <v>195700</v>
       </c>
       <c r="H62" s="3">
-        <v>149700</v>
+        <v>155400</v>
       </c>
       <c r="I62" s="3">
-        <v>158800</v>
+        <v>164800</v>
       </c>
       <c r="J62" s="3">
-        <v>136900</v>
+        <v>142100</v>
       </c>
       <c r="K62" s="3">
         <v>123900</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>256100</v>
+        <v>265900</v>
       </c>
       <c r="E66" s="3">
-        <v>244800</v>
+        <v>254100</v>
       </c>
       <c r="F66" s="3">
-        <v>259300</v>
+        <v>269200</v>
       </c>
       <c r="G66" s="3">
-        <v>246000</v>
+        <v>255400</v>
       </c>
       <c r="H66" s="3">
-        <v>207100</v>
+        <v>215000</v>
       </c>
       <c r="I66" s="3">
-        <v>207200</v>
+        <v>215100</v>
       </c>
       <c r="J66" s="3">
-        <v>191900</v>
+        <v>199200</v>
       </c>
       <c r="K66" s="3">
         <v>192700</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1114600</v>
+        <v>1157200</v>
       </c>
       <c r="E72" s="3">
-        <v>986600</v>
+        <v>1024300</v>
       </c>
       <c r="F72" s="3">
-        <v>806100</v>
+        <v>836900</v>
       </c>
       <c r="G72" s="3">
-        <v>645800</v>
+        <v>670500</v>
       </c>
       <c r="H72" s="3">
-        <v>427900</v>
+        <v>444300</v>
       </c>
       <c r="I72" s="3">
-        <v>283500</v>
+        <v>294400</v>
       </c>
       <c r="J72" s="3">
-        <v>124900</v>
+        <v>129700</v>
       </c>
       <c r="K72" s="3">
         <v>-44500</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8325600</v>
+        <v>8643800</v>
       </c>
       <c r="E76" s="3">
-        <v>8292700</v>
+        <v>8609700</v>
       </c>
       <c r="F76" s="3">
-        <v>8264800</v>
+        <v>8580600</v>
       </c>
       <c r="G76" s="3">
-        <v>8024400</v>
+        <v>8331000</v>
       </c>
       <c r="H76" s="3">
-        <v>7763300</v>
+        <v>8060000</v>
       </c>
       <c r="I76" s="3">
-        <v>7723800</v>
+        <v>8019000</v>
       </c>
       <c r="J76" s="3">
-        <v>7462200</v>
+        <v>7747400</v>
       </c>
       <c r="K76" s="3">
         <v>7035600</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>209200</v>
+        <v>217200</v>
       </c>
       <c r="E81" s="3">
-        <v>261700</v>
+        <v>271700</v>
       </c>
       <c r="F81" s="3">
+        <v>251700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>305400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>229500</v>
+      </c>
+      <c r="I81" s="3">
         <v>242400</v>
       </c>
-      <c r="G81" s="3">
-        <v>294200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>221100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>233500</v>
-      </c>
       <c r="J81" s="3">
-        <v>228400</v>
+        <v>237100</v>
       </c>
       <c r="K81" s="3">
         <v>228400</v>
@@ -3634,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>91200</v>
+        <v>94700</v>
       </c>
       <c r="E83" s="3">
-        <v>92700</v>
+        <v>96200</v>
       </c>
       <c r="F83" s="3">
-        <v>99400</v>
+        <v>103100</v>
       </c>
       <c r="G83" s="3">
-        <v>104100</v>
+        <v>108100</v>
       </c>
       <c r="H83" s="3">
-        <v>97200</v>
+        <v>100900</v>
       </c>
       <c r="I83" s="3">
-        <v>102800</v>
+        <v>106700</v>
       </c>
       <c r="J83" s="3">
-        <v>94800</v>
+        <v>98400</v>
       </c>
       <c r="K83" s="3">
         <v>87200</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>309400</v>
+        <v>321200</v>
       </c>
       <c r="E89" s="3">
-        <v>342700</v>
+        <v>355800</v>
       </c>
       <c r="F89" s="3">
-        <v>307100</v>
+        <v>318900</v>
       </c>
       <c r="G89" s="3">
-        <v>371600</v>
+        <v>385800</v>
       </c>
       <c r="H89" s="3">
-        <v>275500</v>
+        <v>286100</v>
       </c>
       <c r="I89" s="3">
-        <v>326600</v>
+        <v>339000</v>
       </c>
       <c r="J89" s="3">
-        <v>298700</v>
+        <v>310100</v>
       </c>
       <c r="K89" s="3">
         <v>318300</v>
@@ -3969,13 +3969,13 @@
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41200</v>
+        <v>-42700</v>
       </c>
       <c r="E94" s="3">
-        <v>-19700</v>
+        <v>-20500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G94" s="3">
-        <v>-48500</v>
+        <v>-50300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="I94" s="3">
-        <v>-723300</v>
+        <v>-750900</v>
       </c>
       <c r="J94" s="3">
-        <v>-237600</v>
+        <v>-246700</v>
       </c>
       <c r="K94" s="3">
         <v>-178200</v>
@@ -4154,25 +4154,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-64200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-68300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-66700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-61500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-61800</v>
-      </c>
       <c r="I96" s="3">
-        <v>-60200</v>
+        <v>-62500</v>
       </c>
       <c r="J96" s="3">
-        <v>-55700</v>
+        <v>-57800</v>
       </c>
       <c r="K96" s="3">
         <v>-51400</v>
@@ -4330,25 +4330,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="H100" s="3">
         <v>-65400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-64700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-63000</v>
-      </c>
       <c r="I100" s="3">
-        <v>-59800</v>
+        <v>-62100</v>
       </c>
       <c r="J100" s="3">
-        <v>-55800</v>
+        <v>-57900</v>
       </c>
       <c r="K100" s="3">
         <v>-51300</v>
@@ -4374,22 +4374,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="E101" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="F101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G101" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>195500</v>
+        <v>203000</v>
       </c>
       <c r="E102" s="3">
-        <v>250200</v>
+        <v>259800</v>
       </c>
       <c r="F102" s="3">
-        <v>244300</v>
+        <v>253600</v>
       </c>
       <c r="G102" s="3">
-        <v>256500</v>
+        <v>266300</v>
       </c>
       <c r="H102" s="3">
-        <v>198400</v>
+        <v>206000</v>
       </c>
       <c r="I102" s="3">
-        <v>-453900</v>
+        <v>-471200</v>
       </c>
       <c r="J102" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="K102" s="3">
         <v>87100</v>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>420600</v>
+        <v>373000</v>
       </c>
       <c r="E8" s="3">
-        <v>487100</v>
+        <v>432500</v>
       </c>
       <c r="F8" s="3">
-        <v>468500</v>
+        <v>410700</v>
       </c>
       <c r="G8" s="3">
-        <v>453100</v>
+        <v>475600</v>
       </c>
       <c r="H8" s="3">
-        <v>437300</v>
+        <v>457400</v>
       </c>
       <c r="I8" s="3">
+        <v>442400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>427000</v>
+      </c>
+      <c r="K8" s="3">
         <v>479900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>427100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>393500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>365000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>249000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>306300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>331000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>152800</v>
+        <v>133900</v>
       </c>
       <c r="E9" s="3">
-        <v>159100</v>
+        <v>161100</v>
       </c>
       <c r="F9" s="3">
-        <v>163400</v>
+        <v>149200</v>
       </c>
       <c r="G9" s="3">
-        <v>175000</v>
+        <v>155400</v>
       </c>
       <c r="H9" s="3">
-        <v>159000</v>
+        <v>159600</v>
       </c>
       <c r="I9" s="3">
+        <v>170900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K9" s="3">
         <v>172100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>154600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>147600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>126900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>102300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>137600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>152600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>267800</v>
+        <v>239100</v>
       </c>
       <c r="E10" s="3">
-        <v>328000</v>
+        <v>271500</v>
       </c>
       <c r="F10" s="3">
-        <v>305000</v>
+        <v>261500</v>
       </c>
       <c r="G10" s="3">
-        <v>278100</v>
+        <v>320200</v>
       </c>
       <c r="H10" s="3">
-        <v>278300</v>
+        <v>297800</v>
       </c>
       <c r="I10" s="3">
+        <v>271500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>271800</v>
+      </c>
+      <c r="K10" s="3">
         <v>307800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>272500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>245900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>238100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>146700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>168800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>178400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>-104400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-12400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>346100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>160400</v>
+        <v>140700</v>
       </c>
       <c r="E17" s="3">
-        <v>166900</v>
+        <v>177500</v>
       </c>
       <c r="F17" s="3">
-        <v>175300</v>
+        <v>156600</v>
       </c>
       <c r="G17" s="3">
-        <v>83800</v>
+        <v>162900</v>
       </c>
       <c r="H17" s="3">
-        <v>165200</v>
+        <v>171200</v>
       </c>
       <c r="I17" s="3">
+        <v>81800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K17" s="3">
         <v>196100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>162300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>140500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>132400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>114200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>489000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>165600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>260200</v>
+        <v>232300</v>
       </c>
       <c r="E18" s="3">
-        <v>320200</v>
+        <v>255000</v>
       </c>
       <c r="F18" s="3">
-        <v>293100</v>
+        <v>254100</v>
       </c>
       <c r="G18" s="3">
-        <v>369300</v>
+        <v>312700</v>
       </c>
       <c r="H18" s="3">
-        <v>272100</v>
+        <v>286200</v>
       </c>
       <c r="I18" s="3">
+        <v>360600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K18" s="3">
         <v>283900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>264800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>253100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>232600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>134800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-182700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>165500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>354100</v>
+        <v>331000</v>
       </c>
       <c r="E21" s="3">
-        <v>419100</v>
+        <v>362700</v>
       </c>
       <c r="F21" s="3">
-        <v>405000</v>
+        <v>345700</v>
       </c>
       <c r="G21" s="3">
-        <v>475800</v>
+        <v>409200</v>
       </c>
       <c r="H21" s="3">
-        <v>372600</v>
+        <v>395400</v>
       </c>
       <c r="I21" s="3">
+        <v>464500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>363800</v>
+      </c>
+      <c r="K21" s="3">
         <v>390600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>363200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>343600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>308100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>202000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>262700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,10 +1354,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1287,119 +1366,137 @@
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>259300</v>
+        <v>248500</v>
       </c>
       <c r="E23" s="3">
-        <v>322400</v>
+        <v>263300</v>
       </c>
       <c r="F23" s="3">
-        <v>301400</v>
+        <v>253100</v>
       </c>
       <c r="G23" s="3">
-        <v>367200</v>
+        <v>314800</v>
       </c>
       <c r="H23" s="3">
-        <v>271300</v>
+        <v>294300</v>
       </c>
       <c r="I23" s="3">
+        <v>358600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>264900</v>
+      </c>
+      <c r="K23" s="3">
         <v>283000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>264500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>256200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>233600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>134900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-183000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>167400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42000</v>
+        <v>37300</v>
       </c>
       <c r="E24" s="3">
-        <v>50700</v>
+        <v>40500</v>
       </c>
       <c r="F24" s="3">
-        <v>49800</v>
+        <v>41000</v>
       </c>
       <c r="G24" s="3">
-        <v>61800</v>
+        <v>49500</v>
       </c>
       <c r="H24" s="3">
-        <v>41800</v>
+        <v>48600</v>
       </c>
       <c r="I24" s="3">
+        <v>60300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K24" s="3">
         <v>40700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>32900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-57200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>22100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217200</v>
+        <v>211300</v>
       </c>
       <c r="E26" s="3">
-        <v>271700</v>
+        <v>222800</v>
       </c>
       <c r="F26" s="3">
-        <v>251700</v>
+        <v>212100</v>
       </c>
       <c r="G26" s="3">
-        <v>305400</v>
+        <v>265300</v>
       </c>
       <c r="H26" s="3">
-        <v>229500</v>
+        <v>245700</v>
       </c>
       <c r="I26" s="3">
+        <v>298200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>224100</v>
+      </c>
+      <c r="K26" s="3">
         <v>242400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>237100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>228400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>120300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-125900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>145300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>217200</v>
+        <v>211300</v>
       </c>
       <c r="E27" s="3">
-        <v>271700</v>
+        <v>222800</v>
       </c>
       <c r="F27" s="3">
-        <v>251700</v>
+        <v>212100</v>
       </c>
       <c r="G27" s="3">
-        <v>305400</v>
+        <v>265300</v>
       </c>
       <c r="H27" s="3">
-        <v>229500</v>
+        <v>245700</v>
       </c>
       <c r="I27" s="3">
+        <v>298200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>224100</v>
+      </c>
+      <c r="K27" s="3">
         <v>242400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>237100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>228400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>120300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-125900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>145300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>217200</v>
+        <v>211300</v>
       </c>
       <c r="E33" s="3">
-        <v>271700</v>
+        <v>222800</v>
       </c>
       <c r="F33" s="3">
-        <v>251700</v>
+        <v>212100</v>
       </c>
       <c r="G33" s="3">
-        <v>305400</v>
+        <v>265300</v>
       </c>
       <c r="H33" s="3">
-        <v>229500</v>
+        <v>245700</v>
       </c>
       <c r="I33" s="3">
+        <v>298200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>224100</v>
+      </c>
+      <c r="K33" s="3">
         <v>242400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>237100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>228400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>120300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-125900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>145300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>217200</v>
+        <v>211300</v>
       </c>
       <c r="E35" s="3">
-        <v>271700</v>
+        <v>222800</v>
       </c>
       <c r="F35" s="3">
-        <v>251700</v>
+        <v>212100</v>
       </c>
       <c r="G35" s="3">
-        <v>305400</v>
+        <v>265300</v>
       </c>
       <c r="H35" s="3">
-        <v>229500</v>
+        <v>245700</v>
       </c>
       <c r="I35" s="3">
+        <v>298200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>224100</v>
+      </c>
+      <c r="K35" s="3">
         <v>242400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>237100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>228400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>120300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-125900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>145300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1462100</v>
+        <v>1685300</v>
       </c>
       <c r="E41" s="3">
-        <v>1259100</v>
+        <v>1615300</v>
       </c>
       <c r="F41" s="3">
-        <v>999300</v>
+        <v>1427500</v>
       </c>
       <c r="G41" s="3">
-        <v>745700</v>
+        <v>1229300</v>
       </c>
       <c r="H41" s="3">
-        <v>479400</v>
+        <v>975600</v>
       </c>
       <c r="I41" s="3">
+        <v>728100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>468000</v>
+      </c>
+      <c r="K41" s="3">
         <v>273400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>744600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>690400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>608900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>482300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>267200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>169400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>207400</v>
+        <v>204900</v>
       </c>
       <c r="E43" s="3">
-        <v>199500</v>
+        <v>183200</v>
       </c>
       <c r="F43" s="3">
-        <v>255700</v>
+        <v>202500</v>
       </c>
       <c r="G43" s="3">
-        <v>220500</v>
+        <v>194800</v>
       </c>
       <c r="H43" s="3">
-        <v>258300</v>
+        <v>249600</v>
       </c>
       <c r="I43" s="3">
+        <v>215300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>252200</v>
+      </c>
+      <c r="K43" s="3">
         <v>160000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>141500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>120700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>122000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>119000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>105900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>125400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,184 +2334,214 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77200</v>
+        <v>62400</v>
       </c>
       <c r="E45" s="3">
-        <v>66200</v>
+        <v>68700</v>
       </c>
       <c r="F45" s="3">
-        <v>58100</v>
+        <v>75300</v>
       </c>
       <c r="G45" s="3">
-        <v>72700</v>
+        <v>64700</v>
       </c>
       <c r="H45" s="3">
-        <v>71100</v>
+        <v>56700</v>
       </c>
       <c r="I45" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K45" s="3">
         <v>62900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>50100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>46700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>53100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>55800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>60100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>62600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1746600</v>
+        <v>1952600</v>
       </c>
       <c r="E46" s="3">
-        <v>1524800</v>
+        <v>1867200</v>
       </c>
       <c r="F46" s="3">
-        <v>1313000</v>
+        <v>1705300</v>
       </c>
       <c r="G46" s="3">
-        <v>1039000</v>
+        <v>1488800</v>
       </c>
       <c r="H46" s="3">
-        <v>808700</v>
+        <v>1282000</v>
       </c>
       <c r="I46" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>789600</v>
+      </c>
+      <c r="K46" s="3">
         <v>496300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>936100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>857800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>783900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>657200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>433200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>357500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>307800</v>
+        <v>314000</v>
       </c>
       <c r="E47" s="3">
-        <v>291200</v>
+        <v>303200</v>
       </c>
       <c r="F47" s="3">
-        <v>359200</v>
+        <v>300500</v>
       </c>
       <c r="G47" s="3">
-        <v>325100</v>
+        <v>284300</v>
       </c>
       <c r="H47" s="3">
-        <v>282200</v>
+        <v>350700</v>
       </c>
       <c r="I47" s="3">
+        <v>317400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>275500</v>
+      </c>
+      <c r="K47" s="3">
         <v>421600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>338600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>300700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>242900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>225600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>163200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>231100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6735400</v>
+        <v>6722700</v>
       </c>
       <c r="E48" s="3">
-        <v>6920400</v>
+        <v>6661200</v>
       </c>
       <c r="F48" s="3">
-        <v>7054700</v>
+        <v>6576100</v>
       </c>
       <c r="G48" s="3">
-        <v>7129800</v>
+        <v>6756800</v>
       </c>
       <c r="H48" s="3">
-        <v>7095300</v>
+        <v>6887800</v>
       </c>
       <c r="I48" s="3">
+        <v>6961100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6927500</v>
+      </c>
+      <c r="K48" s="3">
         <v>7231100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6576100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5996100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5895500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5646600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5676400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6169300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119900</v>
+        <v>110800</v>
       </c>
       <c r="E52" s="3">
-        <v>127300</v>
+        <v>114600</v>
       </c>
       <c r="F52" s="3">
-        <v>122900</v>
+        <v>117000</v>
       </c>
       <c r="G52" s="3">
-        <v>92600</v>
+        <v>124300</v>
       </c>
       <c r="H52" s="3">
-        <v>88800</v>
+        <v>120000</v>
       </c>
       <c r="I52" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K52" s="3">
         <v>85200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>95800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>73700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>66000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>74400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>72900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>15000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8909700</v>
+        <v>9100200</v>
       </c>
       <c r="E54" s="3">
-        <v>8863800</v>
+        <v>8946200</v>
       </c>
       <c r="F54" s="3">
-        <v>8849800</v>
+        <v>8699000</v>
       </c>
       <c r="G54" s="3">
-        <v>8586400</v>
+        <v>8654200</v>
       </c>
       <c r="H54" s="3">
-        <v>8275000</v>
+        <v>8640500</v>
       </c>
       <c r="I54" s="3">
+        <v>8383400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8079300</v>
+      </c>
+      <c r="K54" s="3">
         <v>8234100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7946700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7228300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6988300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6603700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6345700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6772900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>55300</v>
+        <v>63200</v>
       </c>
       <c r="E57" s="3">
-        <v>48300</v>
+        <v>58200</v>
       </c>
       <c r="F57" s="3">
-        <v>50900</v>
+        <v>54000</v>
       </c>
       <c r="G57" s="3">
-        <v>46500</v>
+        <v>47100</v>
       </c>
       <c r="H57" s="3">
-        <v>40800</v>
+        <v>49700</v>
       </c>
       <c r="I57" s="3">
         <v>45400</v>
       </c>
       <c r="J57" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>45400</v>
+      </c>
+      <c r="L57" s="3">
         <v>46700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>52700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>48300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>45000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>49200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>53600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16500</v>
+        <v>4700</v>
       </c>
       <c r="E59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L59" s="3">
         <v>10400</v>
       </c>
-      <c r="F59" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>18800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71800</v>
+        <v>67900</v>
       </c>
       <c r="E60" s="3">
-        <v>58600</v>
+        <v>67800</v>
       </c>
       <c r="F60" s="3">
-        <v>60400</v>
+        <v>70100</v>
       </c>
       <c r="G60" s="3">
-        <v>59700</v>
+        <v>57200</v>
       </c>
       <c r="H60" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="I60" s="3">
+        <v>58300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K60" s="3">
         <v>50300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>57100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>68800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>54500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>48600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>51700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>68500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2834,57 +3119,69 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>105900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>194100</v>
+        <v>222800</v>
       </c>
       <c r="E62" s="3">
-        <v>195500</v>
+        <v>214700</v>
       </c>
       <c r="F62" s="3">
-        <v>208800</v>
+        <v>189500</v>
       </c>
       <c r="G62" s="3">
-        <v>195700</v>
+        <v>190900</v>
       </c>
       <c r="H62" s="3">
-        <v>155400</v>
+        <v>203900</v>
       </c>
       <c r="I62" s="3">
+        <v>191000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K62" s="3">
         <v>164800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>142100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>123900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>111100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>93900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>82400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>105700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>265900</v>
+        <v>290700</v>
       </c>
       <c r="E66" s="3">
-        <v>254100</v>
+        <v>282400</v>
       </c>
       <c r="F66" s="3">
-        <v>269200</v>
+        <v>259600</v>
       </c>
       <c r="G66" s="3">
-        <v>255400</v>
+        <v>248100</v>
       </c>
       <c r="H66" s="3">
-        <v>215000</v>
+        <v>262800</v>
       </c>
       <c r="I66" s="3">
+        <v>249300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>209900</v>
+      </c>
+      <c r="K66" s="3">
         <v>215100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>199200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>192700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>165700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>142500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>134100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>280100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1157200</v>
+        <v>1392500</v>
       </c>
       <c r="E72" s="3">
-        <v>1024300</v>
+        <v>1269500</v>
       </c>
       <c r="F72" s="3">
-        <v>836900</v>
+        <v>1129800</v>
       </c>
       <c r="G72" s="3">
-        <v>670500</v>
+        <v>1000100</v>
       </c>
       <c r="H72" s="3">
-        <v>444300</v>
+        <v>817200</v>
       </c>
       <c r="I72" s="3">
+        <v>654600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>433800</v>
+      </c>
+      <c r="K72" s="3">
         <v>294400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>129700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-209400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-338700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-395300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-210900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8643800</v>
+        <v>8809600</v>
       </c>
       <c r="E76" s="3">
-        <v>8609700</v>
+        <v>8663800</v>
       </c>
       <c r="F76" s="3">
-        <v>8580600</v>
+        <v>8439400</v>
       </c>
       <c r="G76" s="3">
-        <v>8331000</v>
+        <v>8406000</v>
       </c>
       <c r="H76" s="3">
-        <v>8060000</v>
+        <v>8377700</v>
       </c>
       <c r="I76" s="3">
+        <v>8134000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7869400</v>
+      </c>
+      <c r="K76" s="3">
         <v>8019000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7747400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7035600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6822700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6461200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6211600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6492800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>217200</v>
+        <v>211300</v>
       </c>
       <c r="E81" s="3">
-        <v>271700</v>
+        <v>222800</v>
       </c>
       <c r="F81" s="3">
-        <v>251700</v>
+        <v>212100</v>
       </c>
       <c r="G81" s="3">
-        <v>305400</v>
+        <v>265300</v>
       </c>
       <c r="H81" s="3">
-        <v>229500</v>
+        <v>245700</v>
       </c>
       <c r="I81" s="3">
+        <v>298200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>224100</v>
+      </c>
+      <c r="K81" s="3">
         <v>242400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>237100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>228400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>120300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-125900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>145300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>94700</v>
+        <v>82400</v>
       </c>
       <c r="E83" s="3">
-        <v>96200</v>
+        <v>99200</v>
       </c>
       <c r="F83" s="3">
-        <v>103100</v>
+        <v>92500</v>
       </c>
       <c r="G83" s="3">
-        <v>108100</v>
+        <v>94000</v>
       </c>
       <c r="H83" s="3">
-        <v>100900</v>
+        <v>100700</v>
       </c>
       <c r="I83" s="3">
+        <v>105600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K83" s="3">
         <v>106700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>98400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>87200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>74100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>66600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>82000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>93200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>321200</v>
+        <v>283200</v>
       </c>
       <c r="E89" s="3">
-        <v>355800</v>
+        <v>377100</v>
       </c>
       <c r="F89" s="3">
-        <v>318900</v>
+        <v>313600</v>
       </c>
       <c r="G89" s="3">
-        <v>385800</v>
+        <v>347400</v>
       </c>
       <c r="H89" s="3">
-        <v>286100</v>
+        <v>311300</v>
       </c>
       <c r="I89" s="3">
+        <v>376700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K89" s="3">
         <v>339000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>310100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>318300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>276800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>191400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>248600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>236800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-109600</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-125000</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1000</v>
+        <v>-10300</v>
       </c>
       <c r="H91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1300</v>
       </c>
       <c r="L91" s="3">
         <v>-400</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="N91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-42700</v>
+        <v>-138500</v>
       </c>
       <c r="E94" s="3">
-        <v>-20500</v>
+        <v>-132600</v>
       </c>
       <c r="F94" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-50300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-9800</v>
-      </c>
       <c r="I94" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-750900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-246700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-178200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-153400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-24200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-43900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-66600</v>
+        <v>-78000</v>
       </c>
       <c r="E96" s="3">
-        <v>-70900</v>
+        <v>-64800</v>
       </c>
       <c r="F96" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-69300</v>
       </c>
-      <c r="G96" s="3">
-        <v>-63900</v>
-      </c>
       <c r="H96" s="3">
-        <v>-64200</v>
+        <v>-67600</v>
       </c>
       <c r="I96" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-62500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-57800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-51400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-51000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-50700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-46100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-45300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67900</v>
+        <v>-76400</v>
       </c>
       <c r="E100" s="3">
-        <v>-67200</v>
+        <v>-59000</v>
       </c>
       <c r="F100" s="3">
-        <v>-65800</v>
+        <v>-66300</v>
       </c>
       <c r="G100" s="3">
-        <v>-63700</v>
+        <v>-65600</v>
       </c>
       <c r="H100" s="3">
-        <v>-65400</v>
+        <v>-64300</v>
       </c>
       <c r="I100" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-62100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-57900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-51300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-12300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>44300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-98700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-182900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7600</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>-8300</v>
+        <v>2300</v>
       </c>
       <c r="F101" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>203000</v>
+        <v>70100</v>
       </c>
       <c r="E102" s="3">
-        <v>259800</v>
+        <v>187800</v>
       </c>
       <c r="F102" s="3">
-        <v>253600</v>
+        <v>198200</v>
       </c>
       <c r="G102" s="3">
-        <v>266300</v>
+        <v>253700</v>
       </c>
       <c r="H102" s="3">
-        <v>206000</v>
+        <v>247600</v>
       </c>
       <c r="I102" s="3">
+        <v>260000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-471200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>87100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>115200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>215000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>99000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>51800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>373000</v>
+        <v>445600</v>
       </c>
       <c r="E8" s="3">
-        <v>432500</v>
+        <v>373200</v>
       </c>
       <c r="F8" s="3">
-        <v>410700</v>
+        <v>432800</v>
       </c>
       <c r="G8" s="3">
-        <v>475600</v>
+        <v>410900</v>
       </c>
       <c r="H8" s="3">
-        <v>457400</v>
+        <v>475900</v>
       </c>
       <c r="I8" s="3">
-        <v>442400</v>
+        <v>457600</v>
       </c>
       <c r="J8" s="3">
+        <v>442600</v>
+      </c>
+      <c r="K8" s="3">
         <v>427000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>479900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>427100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>393500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>365000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>249000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>306300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>331000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>133900</v>
+        <v>165100</v>
       </c>
       <c r="E9" s="3">
+        <v>134000</v>
+      </c>
+      <c r="F9" s="3">
         <v>161100</v>
       </c>
-      <c r="F9" s="3">
-        <v>149200</v>
-      </c>
       <c r="G9" s="3">
-        <v>155400</v>
+        <v>149300</v>
       </c>
       <c r="H9" s="3">
-        <v>159600</v>
+        <v>155500</v>
       </c>
       <c r="I9" s="3">
-        <v>170900</v>
+        <v>159700</v>
       </c>
       <c r="J9" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K9" s="3">
         <v>155300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>172100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>154600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>147600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>126900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>102300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>137600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>152600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>239100</v>
+        <v>280500</v>
       </c>
       <c r="E10" s="3">
-        <v>271500</v>
+        <v>239200</v>
       </c>
       <c r="F10" s="3">
-        <v>261500</v>
+        <v>271600</v>
       </c>
       <c r="G10" s="3">
-        <v>320200</v>
+        <v>261600</v>
       </c>
       <c r="H10" s="3">
-        <v>297800</v>
+        <v>320400</v>
       </c>
       <c r="I10" s="3">
-        <v>271500</v>
+        <v>298000</v>
       </c>
       <c r="J10" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K10" s="3">
         <v>271800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>272500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>245900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>238100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>146700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>168800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>178400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1025,41 +1045,44 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-101900</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-102000</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-12400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>346100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E17" s="3">
         <v>140700</v>
       </c>
-      <c r="E17" s="3">
-        <v>177500</v>
-      </c>
       <c r="F17" s="3">
-        <v>156600</v>
+        <v>177600</v>
       </c>
       <c r="G17" s="3">
-        <v>162900</v>
+        <v>156700</v>
       </c>
       <c r="H17" s="3">
-        <v>171200</v>
+        <v>163000</v>
       </c>
       <c r="I17" s="3">
-        <v>81800</v>
+        <v>171300</v>
       </c>
       <c r="J17" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K17" s="3">
         <v>161300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>196100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>162300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>114200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>489000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>165600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>232300</v>
+        <v>270800</v>
       </c>
       <c r="E18" s="3">
-        <v>255000</v>
+        <v>232500</v>
       </c>
       <c r="F18" s="3">
-        <v>254100</v>
+        <v>255100</v>
       </c>
       <c r="G18" s="3">
-        <v>312700</v>
+        <v>254200</v>
       </c>
       <c r="H18" s="3">
-        <v>286200</v>
+        <v>312800</v>
       </c>
       <c r="I18" s="3">
-        <v>360600</v>
+        <v>286300</v>
       </c>
       <c r="J18" s="3">
+        <v>360800</v>
+      </c>
+      <c r="K18" s="3">
         <v>265700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>283900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>264800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>253100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>232600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>134800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-182700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>165500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>331000</v>
+        <v>387200</v>
       </c>
       <c r="E21" s="3">
-        <v>362700</v>
+        <v>331200</v>
       </c>
       <c r="F21" s="3">
-        <v>345700</v>
+        <v>362900</v>
       </c>
       <c r="G21" s="3">
-        <v>409200</v>
+        <v>345900</v>
       </c>
       <c r="H21" s="3">
-        <v>395400</v>
+        <v>409400</v>
       </c>
       <c r="I21" s="3">
-        <v>464500</v>
+        <v>395600</v>
       </c>
       <c r="J21" s="3">
+        <v>464800</v>
+      </c>
+      <c r="K21" s="3">
         <v>363800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>390600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>363200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>343600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>308100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>202000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>262700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,13 +1394,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1372,16 +1412,16 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
@@ -1390,113 +1430,122 @@
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>248500</v>
+        <v>285700</v>
       </c>
       <c r="E23" s="3">
-        <v>263300</v>
+        <v>248700</v>
       </c>
       <c r="F23" s="3">
-        <v>253100</v>
+        <v>263400</v>
       </c>
       <c r="G23" s="3">
-        <v>314800</v>
+        <v>253300</v>
       </c>
       <c r="H23" s="3">
-        <v>294300</v>
+        <v>315000</v>
       </c>
       <c r="I23" s="3">
-        <v>358600</v>
+        <v>294500</v>
       </c>
       <c r="J23" s="3">
+        <v>358700</v>
+      </c>
+      <c r="K23" s="3">
         <v>264900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>283000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>264500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>256200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>233600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>134900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-183000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>167400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E24" s="3">
         <v>37300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40500</v>
       </c>
-      <c r="F24" s="3">
-        <v>41000</v>
-      </c>
       <c r="G24" s="3">
-        <v>49500</v>
+        <v>41100</v>
       </c>
       <c r="H24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="I24" s="3">
         <v>48600</v>
       </c>
-      <c r="I24" s="3">
-        <v>60300</v>
-      </c>
       <c r="J24" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K24" s="3">
         <v>40800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>211300</v>
+        <v>249200</v>
       </c>
       <c r="E26" s="3">
-        <v>222800</v>
+        <v>211400</v>
       </c>
       <c r="F26" s="3">
-        <v>212100</v>
+        <v>222900</v>
       </c>
       <c r="G26" s="3">
-        <v>265300</v>
+        <v>212200</v>
       </c>
       <c r="H26" s="3">
-        <v>245700</v>
+        <v>265400</v>
       </c>
       <c r="I26" s="3">
-        <v>298200</v>
+        <v>245800</v>
       </c>
       <c r="J26" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K26" s="3">
         <v>224100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>242400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>237100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>228400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>120300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211300</v>
+        <v>249200</v>
       </c>
       <c r="E27" s="3">
-        <v>222800</v>
+        <v>211400</v>
       </c>
       <c r="F27" s="3">
-        <v>212100</v>
+        <v>222900</v>
       </c>
       <c r="G27" s="3">
-        <v>265300</v>
+        <v>212200</v>
       </c>
       <c r="H27" s="3">
-        <v>245700</v>
+        <v>265400</v>
       </c>
       <c r="I27" s="3">
-        <v>298200</v>
+        <v>245800</v>
       </c>
       <c r="J27" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K27" s="3">
         <v>224100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>242400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>237100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>228400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>145300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211300</v>
+        <v>249200</v>
       </c>
       <c r="E33" s="3">
-        <v>222800</v>
+        <v>211400</v>
       </c>
       <c r="F33" s="3">
-        <v>212100</v>
+        <v>222900</v>
       </c>
       <c r="G33" s="3">
-        <v>265300</v>
+        <v>212200</v>
       </c>
       <c r="H33" s="3">
-        <v>245700</v>
+        <v>265400</v>
       </c>
       <c r="I33" s="3">
-        <v>298200</v>
+        <v>245800</v>
       </c>
       <c r="J33" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K33" s="3">
         <v>224100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>242400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>237100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>120300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>145300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211300</v>
+        <v>249200</v>
       </c>
       <c r="E35" s="3">
-        <v>222800</v>
+        <v>211400</v>
       </c>
       <c r="F35" s="3">
-        <v>212100</v>
+        <v>222900</v>
       </c>
       <c r="G35" s="3">
-        <v>265300</v>
+        <v>212200</v>
       </c>
       <c r="H35" s="3">
-        <v>245700</v>
+        <v>265400</v>
       </c>
       <c r="I35" s="3">
-        <v>298200</v>
+        <v>245800</v>
       </c>
       <c r="J35" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K35" s="3">
         <v>224100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>242400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>237100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>120300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>145300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1685300</v>
+        <v>1749300</v>
       </c>
       <c r="E41" s="3">
-        <v>1615300</v>
+        <v>1686200</v>
       </c>
       <c r="F41" s="3">
-        <v>1427500</v>
+        <v>1616100</v>
       </c>
       <c r="G41" s="3">
-        <v>1229300</v>
+        <v>1428200</v>
       </c>
       <c r="H41" s="3">
-        <v>975600</v>
+        <v>1229900</v>
       </c>
       <c r="I41" s="3">
-        <v>728100</v>
+        <v>976200</v>
       </c>
       <c r="J41" s="3">
+        <v>728400</v>
+      </c>
+      <c r="K41" s="3">
         <v>468000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>273400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>744600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>690400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>608900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>482300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>267200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>204900</v>
+        <v>195000</v>
       </c>
       <c r="E43" s="3">
-        <v>183200</v>
+        <v>205000</v>
       </c>
       <c r="F43" s="3">
-        <v>202500</v>
+        <v>183300</v>
       </c>
       <c r="G43" s="3">
-        <v>194800</v>
+        <v>202600</v>
       </c>
       <c r="H43" s="3">
-        <v>249600</v>
+        <v>194900</v>
       </c>
       <c r="I43" s="3">
-        <v>215300</v>
+        <v>249700</v>
       </c>
       <c r="J43" s="3">
+        <v>215400</v>
+      </c>
+      <c r="K43" s="3">
         <v>252200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>160000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>141500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>120700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>122000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>105900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>125400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,208 +2436,223 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E45" s="3">
         <v>62400</v>
       </c>
-      <c r="E45" s="3">
-        <v>68700</v>
-      </c>
       <c r="F45" s="3">
-        <v>75300</v>
+        <v>68800</v>
       </c>
       <c r="G45" s="3">
+        <v>75400</v>
+      </c>
+      <c r="H45" s="3">
         <v>64700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>71000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1952600</v>
+        <v>2030500</v>
       </c>
       <c r="E46" s="3">
-        <v>1867200</v>
+        <v>1953700</v>
       </c>
       <c r="F46" s="3">
-        <v>1705300</v>
+        <v>1868200</v>
       </c>
       <c r="G46" s="3">
-        <v>1488800</v>
+        <v>1706200</v>
       </c>
       <c r="H46" s="3">
-        <v>1282000</v>
+        <v>1489600</v>
       </c>
       <c r="I46" s="3">
-        <v>1014400</v>
+        <v>1282600</v>
       </c>
       <c r="J46" s="3">
+        <v>1014900</v>
+      </c>
+      <c r="K46" s="3">
         <v>789600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>496300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>936100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>857800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>783900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>657200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>433200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>357500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>314000</v>
+        <v>310300</v>
       </c>
       <c r="E47" s="3">
-        <v>303200</v>
+        <v>314200</v>
       </c>
       <c r="F47" s="3">
-        <v>300500</v>
+        <v>303400</v>
       </c>
       <c r="G47" s="3">
-        <v>284300</v>
+        <v>300700</v>
       </c>
       <c r="H47" s="3">
-        <v>350700</v>
+        <v>284500</v>
       </c>
       <c r="I47" s="3">
-        <v>317400</v>
+        <v>350900</v>
       </c>
       <c r="J47" s="3">
+        <v>317500</v>
+      </c>
+      <c r="K47" s="3">
         <v>275500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>421600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>338600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>242900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>225600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>163200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>231100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6722700</v>
+        <v>6879700</v>
       </c>
       <c r="E48" s="3">
-        <v>6661200</v>
+        <v>6726200</v>
       </c>
       <c r="F48" s="3">
+        <v>6664600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6579500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6760300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6891400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6964700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>6927500</v>
+      </c>
+      <c r="L48" s="3">
+        <v>7231100</v>
+      </c>
+      <c r="M48" s="3">
         <v>6576100</v>
       </c>
-      <c r="G48" s="3">
-        <v>6756800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6887800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6961100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6927500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7231100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6576100</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5996100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5895500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5646600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5676400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6169300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>110800</v>
+        <v>109100</v>
       </c>
       <c r="E52" s="3">
-        <v>114600</v>
+        <v>110900</v>
       </c>
       <c r="F52" s="3">
-        <v>117000</v>
+        <v>114700</v>
       </c>
       <c r="G52" s="3">
-        <v>124300</v>
+        <v>117100</v>
       </c>
       <c r="H52" s="3">
-        <v>120000</v>
+        <v>124400</v>
       </c>
       <c r="I52" s="3">
+        <v>120100</v>
+      </c>
+      <c r="J52" s="3">
         <v>90500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>72900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9100200</v>
+        <v>9329600</v>
       </c>
       <c r="E54" s="3">
-        <v>8946200</v>
+        <v>9104900</v>
       </c>
       <c r="F54" s="3">
-        <v>8699000</v>
+        <v>8950800</v>
       </c>
       <c r="G54" s="3">
-        <v>8654200</v>
+        <v>8703500</v>
       </c>
       <c r="H54" s="3">
-        <v>8640500</v>
+        <v>8658700</v>
       </c>
       <c r="I54" s="3">
-        <v>8383400</v>
+        <v>8645000</v>
       </c>
       <c r="J54" s="3">
+        <v>8387700</v>
+      </c>
+      <c r="K54" s="3">
         <v>8079300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8234100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7946700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7228300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6988300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6603700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6345700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6772900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E57" s="3">
         <v>63200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E60" s="3">
         <v>67900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70100</v>
       </c>
-      <c r="G60" s="3">
-        <v>57200</v>
-      </c>
       <c r="H60" s="3">
+        <v>57300</v>
+      </c>
+      <c r="I60" s="3">
         <v>59000</v>
       </c>
-      <c r="I60" s="3">
-        <v>58300</v>
-      </c>
       <c r="J60" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K60" s="3">
         <v>58200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3125,63 +3268,69 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>105900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>222800</v>
+        <v>231500</v>
       </c>
       <c r="E62" s="3">
-        <v>214700</v>
+        <v>222900</v>
       </c>
       <c r="F62" s="3">
-        <v>189500</v>
+        <v>214800</v>
       </c>
       <c r="G62" s="3">
-        <v>190900</v>
+        <v>189600</v>
       </c>
       <c r="H62" s="3">
-        <v>203900</v>
+        <v>191000</v>
       </c>
       <c r="I62" s="3">
-        <v>191000</v>
+        <v>204000</v>
       </c>
       <c r="J62" s="3">
+        <v>191100</v>
+      </c>
+      <c r="K62" s="3">
         <v>151700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>142100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>123900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>111100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>93900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>105700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>290700</v>
+        <v>307600</v>
       </c>
       <c r="E66" s="3">
-        <v>282400</v>
+        <v>290800</v>
       </c>
       <c r="F66" s="3">
-        <v>259600</v>
+        <v>282600</v>
       </c>
       <c r="G66" s="3">
-        <v>248100</v>
+        <v>259700</v>
       </c>
       <c r="H66" s="3">
-        <v>262800</v>
+        <v>248300</v>
       </c>
       <c r="I66" s="3">
-        <v>249300</v>
+        <v>263000</v>
       </c>
       <c r="J66" s="3">
+        <v>249500</v>
+      </c>
+      <c r="K66" s="3">
         <v>209900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>215100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>199200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>192700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>165700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>142500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>134100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>280100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1392500</v>
+        <v>1554500</v>
       </c>
       <c r="E72" s="3">
-        <v>1269500</v>
+        <v>1393200</v>
       </c>
       <c r="F72" s="3">
-        <v>1129800</v>
+        <v>1270200</v>
       </c>
       <c r="G72" s="3">
-        <v>1000100</v>
+        <v>1130400</v>
       </c>
       <c r="H72" s="3">
-        <v>817200</v>
+        <v>1000600</v>
       </c>
       <c r="I72" s="3">
-        <v>654600</v>
+        <v>817600</v>
       </c>
       <c r="J72" s="3">
+        <v>655000</v>
+      </c>
+      <c r="K72" s="3">
         <v>433800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>294400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>129700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-209400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-338700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-395300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-210900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8809600</v>
+        <v>9022000</v>
       </c>
       <c r="E76" s="3">
-        <v>8663800</v>
+        <v>8814100</v>
       </c>
       <c r="F76" s="3">
-        <v>8439400</v>
+        <v>8668300</v>
       </c>
       <c r="G76" s="3">
-        <v>8406000</v>
+        <v>8443800</v>
       </c>
       <c r="H76" s="3">
-        <v>8377700</v>
+        <v>8410400</v>
       </c>
       <c r="I76" s="3">
-        <v>8134000</v>
+        <v>8382000</v>
       </c>
       <c r="J76" s="3">
+        <v>8138200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7869400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8019000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7747400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7035600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6822700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6461200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6211600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6492800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211300</v>
+        <v>249200</v>
       </c>
       <c r="E81" s="3">
-        <v>222800</v>
+        <v>211400</v>
       </c>
       <c r="F81" s="3">
-        <v>212100</v>
+        <v>222900</v>
       </c>
       <c r="G81" s="3">
-        <v>265300</v>
+        <v>212200</v>
       </c>
       <c r="H81" s="3">
-        <v>245700</v>
+        <v>265400</v>
       </c>
       <c r="I81" s="3">
-        <v>298200</v>
+        <v>245800</v>
       </c>
       <c r="J81" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K81" s="3">
         <v>224100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>242400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>237100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>120300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>145300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E83" s="3">
         <v>82400</v>
       </c>
-      <c r="E83" s="3">
-        <v>99200</v>
-      </c>
       <c r="F83" s="3">
+        <v>99300</v>
+      </c>
+      <c r="G83" s="3">
         <v>92500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94000</v>
       </c>
-      <c r="H83" s="3">
-        <v>100700</v>
-      </c>
       <c r="I83" s="3">
+        <v>100800</v>
+      </c>
+      <c r="J83" s="3">
         <v>105600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>98600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>98400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>87200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>283200</v>
+        <v>353700</v>
       </c>
       <c r="E89" s="3">
-        <v>377100</v>
+        <v>283400</v>
       </c>
       <c r="F89" s="3">
-        <v>313600</v>
+        <v>377300</v>
       </c>
       <c r="G89" s="3">
-        <v>347400</v>
+        <v>313800</v>
       </c>
       <c r="H89" s="3">
-        <v>311300</v>
+        <v>347500</v>
       </c>
       <c r="I89" s="3">
-        <v>376700</v>
+        <v>311500</v>
       </c>
       <c r="J89" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K89" s="3">
         <v>279300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>310100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>318300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>276800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>191400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>248600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>236800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-109600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-125000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-500</v>
       </c>
       <c r="R91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-138500</v>
+        <v>-216900</v>
       </c>
       <c r="E94" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-132600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-49100</v>
-      </c>
       <c r="J94" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-750900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-246700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-178200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-153400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-78000</v>
+        <v>-79200</v>
       </c>
       <c r="E96" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-64800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-65100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-69300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-67600</v>
-      </c>
       <c r="I96" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-62400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-62600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-62500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-57800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-51400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-51000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-50700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-45300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-59000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-66300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-65600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-62200</v>
-      </c>
       <c r="J100" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-63900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>44300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-98700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-182900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E102" s="3">
         <v>70100</v>
       </c>
-      <c r="E102" s="3">
-        <v>187800</v>
-      </c>
       <c r="F102" s="3">
-        <v>198200</v>
+        <v>187900</v>
       </c>
       <c r="G102" s="3">
-        <v>253700</v>
+        <v>198300</v>
       </c>
       <c r="H102" s="3">
-        <v>247600</v>
+        <v>253800</v>
       </c>
       <c r="I102" s="3">
-        <v>260000</v>
+        <v>247700</v>
       </c>
       <c r="J102" s="3">
+        <v>260100</v>
+      </c>
+      <c r="K102" s="3">
         <v>201200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-471200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>87100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>215000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>99000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-394000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>445600</v>
+        <v>425700</v>
       </c>
       <c r="E8" s="3">
-        <v>373200</v>
+        <v>453800</v>
       </c>
       <c r="F8" s="3">
-        <v>432800</v>
+        <v>380100</v>
       </c>
       <c r="G8" s="3">
-        <v>410900</v>
+        <v>440700</v>
       </c>
       <c r="H8" s="3">
-        <v>475900</v>
+        <v>418400</v>
       </c>
       <c r="I8" s="3">
-        <v>457600</v>
+        <v>484600</v>
       </c>
       <c r="J8" s="3">
+        <v>466000</v>
+      </c>
+      <c r="K8" s="3">
         <v>442600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>427000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>479900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>427100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>393500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>365000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>249000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>306300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>331000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>165100</v>
+        <v>160900</v>
       </c>
       <c r="E9" s="3">
-        <v>134000</v>
+        <v>168100</v>
       </c>
       <c r="F9" s="3">
-        <v>161100</v>
+        <v>136400</v>
       </c>
       <c r="G9" s="3">
-        <v>149300</v>
+        <v>164100</v>
       </c>
       <c r="H9" s="3">
-        <v>155500</v>
+        <v>152000</v>
       </c>
       <c r="I9" s="3">
-        <v>159700</v>
+        <v>158300</v>
       </c>
       <c r="J9" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K9" s="3">
         <v>171000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>172100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>154600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>147600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>126900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>137600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>152600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>280500</v>
+        <v>264800</v>
       </c>
       <c r="E10" s="3">
-        <v>239200</v>
+        <v>285700</v>
       </c>
       <c r="F10" s="3">
+        <v>243600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>276600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>266400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>326300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>303400</v>
+      </c>
+      <c r="K10" s="3">
         <v>271600</v>
       </c>
-      <c r="G10" s="3">
-        <v>261600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>320400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>298000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>271600</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>271800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>307800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>272500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>245900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>238100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>146700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>168800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>178400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1048,41 +1068,44 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-102000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-12400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>346100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>174800</v>
+        <v>168500</v>
       </c>
       <c r="E17" s="3">
-        <v>140700</v>
+        <v>178000</v>
       </c>
       <c r="F17" s="3">
-        <v>177600</v>
+        <v>143300</v>
       </c>
       <c r="G17" s="3">
-        <v>156700</v>
+        <v>180900</v>
       </c>
       <c r="H17" s="3">
-        <v>163000</v>
+        <v>159600</v>
       </c>
       <c r="I17" s="3">
-        <v>171300</v>
+        <v>166000</v>
       </c>
       <c r="J17" s="3">
+        <v>174400</v>
+      </c>
+      <c r="K17" s="3">
         <v>81900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>161300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>196100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>162300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>114200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>489000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>165600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>270800</v>
+        <v>257200</v>
       </c>
       <c r="E18" s="3">
-        <v>232500</v>
+        <v>275800</v>
       </c>
       <c r="F18" s="3">
-        <v>255100</v>
+        <v>236700</v>
       </c>
       <c r="G18" s="3">
-        <v>254200</v>
+        <v>259800</v>
       </c>
       <c r="H18" s="3">
-        <v>312800</v>
+        <v>258900</v>
       </c>
       <c r="I18" s="3">
-        <v>286300</v>
+        <v>318600</v>
       </c>
       <c r="J18" s="3">
+        <v>291600</v>
+      </c>
+      <c r="K18" s="3">
         <v>360800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>265700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>283900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>264800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>253100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>232600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>134800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-182700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>165500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,131 +1312,138 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>18200</v>
       </c>
       <c r="E20" s="3">
-        <v>16300</v>
+        <v>15300</v>
       </c>
       <c r="F20" s="3">
-        <v>8500</v>
+        <v>16600</v>
       </c>
       <c r="G20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
-        <v>8500</v>
-      </c>
       <c r="J20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>387200</v>
+        <v>369000</v>
       </c>
       <c r="E21" s="3">
-        <v>331200</v>
+        <v>394400</v>
       </c>
       <c r="F21" s="3">
-        <v>362900</v>
+        <v>337300</v>
       </c>
       <c r="G21" s="3">
-        <v>345900</v>
+        <v>369600</v>
       </c>
       <c r="H21" s="3">
-        <v>409400</v>
+        <v>352300</v>
       </c>
       <c r="I21" s="3">
-        <v>395600</v>
+        <v>416900</v>
       </c>
       <c r="J21" s="3">
+        <v>402900</v>
+      </c>
+      <c r="K21" s="3">
         <v>464800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>363800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>390600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>363200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>343600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>308100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>202000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>262700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>247500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1415,16 +1455,16 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
@@ -1433,119 +1473,128 @@
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>285700</v>
+        <v>275100</v>
       </c>
       <c r="E23" s="3">
-        <v>248700</v>
+        <v>290900</v>
       </c>
       <c r="F23" s="3">
-        <v>263400</v>
+        <v>253200</v>
       </c>
       <c r="G23" s="3">
-        <v>253300</v>
+        <v>268200</v>
       </c>
       <c r="H23" s="3">
-        <v>315000</v>
+        <v>257900</v>
       </c>
       <c r="I23" s="3">
-        <v>294500</v>
+        <v>320800</v>
       </c>
       <c r="J23" s="3">
+        <v>299900</v>
+      </c>
+      <c r="K23" s="3">
         <v>358700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>264900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>283000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>264500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>256200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>233600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>134900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-183000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>167400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36500</v>
+        <v>34200</v>
       </c>
       <c r="E24" s="3">
-        <v>37300</v>
+        <v>37100</v>
       </c>
       <c r="F24" s="3">
-        <v>40500</v>
+        <v>38000</v>
       </c>
       <c r="G24" s="3">
-        <v>41100</v>
+        <v>41300</v>
       </c>
       <c r="H24" s="3">
-        <v>49600</v>
+        <v>41800</v>
       </c>
       <c r="I24" s="3">
-        <v>48600</v>
+        <v>50500</v>
       </c>
       <c r="J24" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K24" s="3">
         <v>60400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-57200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>249200</v>
+        <v>240900</v>
       </c>
       <c r="E26" s="3">
-        <v>211400</v>
+        <v>253800</v>
       </c>
       <c r="F26" s="3">
-        <v>222900</v>
+        <v>215300</v>
       </c>
       <c r="G26" s="3">
-        <v>212200</v>
+        <v>227000</v>
       </c>
       <c r="H26" s="3">
-        <v>265400</v>
+        <v>216100</v>
       </c>
       <c r="I26" s="3">
-        <v>245800</v>
+        <v>270300</v>
       </c>
       <c r="J26" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K26" s="3">
         <v>298400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>224100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>242400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>237100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>228400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>120300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-125900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>145300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>249200</v>
+        <v>240900</v>
       </c>
       <c r="E27" s="3">
-        <v>211400</v>
+        <v>253800</v>
       </c>
       <c r="F27" s="3">
-        <v>222900</v>
+        <v>215300</v>
       </c>
       <c r="G27" s="3">
-        <v>212200</v>
+        <v>227000</v>
       </c>
       <c r="H27" s="3">
-        <v>265400</v>
+        <v>216100</v>
       </c>
       <c r="I27" s="3">
-        <v>245800</v>
+        <v>270300</v>
       </c>
       <c r="J27" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K27" s="3">
         <v>298400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>224100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>242400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>237100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>228400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>120300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-125900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>145300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-18200</v>
       </c>
       <c r="E32" s="3">
-        <v>-16300</v>
+        <v>-15300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8500</v>
+        <v>-16600</v>
       </c>
       <c r="G32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-8500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>249200</v>
+        <v>240900</v>
       </c>
       <c r="E33" s="3">
-        <v>211400</v>
+        <v>253800</v>
       </c>
       <c r="F33" s="3">
-        <v>222900</v>
+        <v>215300</v>
       </c>
       <c r="G33" s="3">
-        <v>212200</v>
+        <v>227000</v>
       </c>
       <c r="H33" s="3">
-        <v>265400</v>
+        <v>216100</v>
       </c>
       <c r="I33" s="3">
-        <v>245800</v>
+        <v>270300</v>
       </c>
       <c r="J33" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K33" s="3">
         <v>298400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>224100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>242400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>237100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>228400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>120300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-125900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>249200</v>
+        <v>240900</v>
       </c>
       <c r="E35" s="3">
-        <v>211400</v>
+        <v>253800</v>
       </c>
       <c r="F35" s="3">
-        <v>222900</v>
+        <v>215300</v>
       </c>
       <c r="G35" s="3">
-        <v>212200</v>
+        <v>227000</v>
       </c>
       <c r="H35" s="3">
-        <v>265400</v>
+        <v>216100</v>
       </c>
       <c r="I35" s="3">
-        <v>245800</v>
+        <v>270300</v>
       </c>
       <c r="J35" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K35" s="3">
         <v>298400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>224100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>242400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>237100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>228400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>120300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-125900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1749300</v>
+        <v>1784200</v>
       </c>
       <c r="E41" s="3">
-        <v>1686200</v>
+        <v>1781400</v>
       </c>
       <c r="F41" s="3">
-        <v>1616100</v>
+        <v>1717200</v>
       </c>
       <c r="G41" s="3">
-        <v>1428200</v>
+        <v>1645800</v>
       </c>
       <c r="H41" s="3">
-        <v>1229900</v>
+        <v>1454500</v>
       </c>
       <c r="I41" s="3">
-        <v>976200</v>
+        <v>1252500</v>
       </c>
       <c r="J41" s="3">
+        <v>994100</v>
+      </c>
+      <c r="K41" s="3">
         <v>728400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>468000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>273400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>744600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>690400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>608900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>482300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>267200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>169400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>117600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>195000</v>
+        <v>185400</v>
       </c>
       <c r="E43" s="3">
-        <v>205000</v>
+        <v>198600</v>
       </c>
       <c r="F43" s="3">
-        <v>183300</v>
+        <v>208800</v>
       </c>
       <c r="G43" s="3">
-        <v>202600</v>
+        <v>186700</v>
       </c>
       <c r="H43" s="3">
-        <v>194900</v>
+        <v>206300</v>
       </c>
       <c r="I43" s="3">
-        <v>249700</v>
+        <v>198500</v>
       </c>
       <c r="J43" s="3">
+        <v>254300</v>
+      </c>
+      <c r="K43" s="3">
         <v>215400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>252200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>160000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>141500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>122000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>105900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>153400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,220 +2535,235 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86200</v>
+        <v>116400</v>
       </c>
       <c r="E45" s="3">
-        <v>62400</v>
+        <v>87800</v>
       </c>
       <c r="F45" s="3">
-        <v>68800</v>
+        <v>63500</v>
       </c>
       <c r="G45" s="3">
-        <v>75400</v>
+        <v>70000</v>
       </c>
       <c r="H45" s="3">
-        <v>64700</v>
+        <v>76800</v>
       </c>
       <c r="I45" s="3">
-        <v>56700</v>
+        <v>65900</v>
       </c>
       <c r="J45" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K45" s="3">
         <v>71000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2030500</v>
+        <v>2085900</v>
       </c>
       <c r="E46" s="3">
-        <v>1953700</v>
+        <v>2067800</v>
       </c>
       <c r="F46" s="3">
-        <v>1868200</v>
+        <v>1989500</v>
       </c>
       <c r="G46" s="3">
-        <v>1706200</v>
+        <v>1902500</v>
       </c>
       <c r="H46" s="3">
-        <v>1489600</v>
+        <v>1737500</v>
       </c>
       <c r="I46" s="3">
-        <v>1282600</v>
+        <v>1516900</v>
       </c>
       <c r="J46" s="3">
+        <v>1306200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1014900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>789600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>496300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>936100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>857800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>783900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>657200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>433200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>357500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>334800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>310300</v>
+        <v>326100</v>
       </c>
       <c r="E47" s="3">
-        <v>314200</v>
+        <v>316000</v>
       </c>
       <c r="F47" s="3">
-        <v>303400</v>
+        <v>319900</v>
       </c>
       <c r="G47" s="3">
+        <v>308900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>306200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>289700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>357400</v>
+      </c>
+      <c r="K47" s="3">
+        <v>317500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>275500</v>
+      </c>
+      <c r="M47" s="3">
+        <v>421600</v>
+      </c>
+      <c r="N47" s="3">
+        <v>338600</v>
+      </c>
+      <c r="O47" s="3">
         <v>300700</v>
       </c>
-      <c r="H47" s="3">
-        <v>284500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>350900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>317500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>275500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>421600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>338600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300700</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>242900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>225600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>163200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>231100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>183200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6879700</v>
+        <v>7102400</v>
       </c>
       <c r="E48" s="3">
-        <v>6726200</v>
+        <v>7006000</v>
       </c>
       <c r="F48" s="3">
-        <v>6664600</v>
+        <v>6849700</v>
       </c>
       <c r="G48" s="3">
-        <v>6579500</v>
+        <v>6787000</v>
       </c>
       <c r="H48" s="3">
-        <v>6760300</v>
+        <v>6700300</v>
       </c>
       <c r="I48" s="3">
-        <v>6891400</v>
+        <v>6884400</v>
       </c>
       <c r="J48" s="3">
+        <v>7017900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6964700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6927500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7231100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6576100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5996100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5895500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5646600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5676400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6169300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6231000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109100</v>
+        <v>94600</v>
       </c>
       <c r="E52" s="3">
-        <v>110900</v>
+        <v>111100</v>
       </c>
       <c r="F52" s="3">
-        <v>114700</v>
+        <v>112900</v>
       </c>
       <c r="G52" s="3">
-        <v>117100</v>
+        <v>116800</v>
       </c>
       <c r="H52" s="3">
-        <v>124400</v>
+        <v>119300</v>
       </c>
       <c r="I52" s="3">
-        <v>120100</v>
+        <v>126700</v>
       </c>
       <c r="J52" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K52" s="3">
         <v>90500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>66000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>72900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9329600</v>
+        <v>9609100</v>
       </c>
       <c r="E54" s="3">
-        <v>9104900</v>
+        <v>9500900</v>
       </c>
       <c r="F54" s="3">
-        <v>8950800</v>
+        <v>9272100</v>
       </c>
       <c r="G54" s="3">
-        <v>8703500</v>
+        <v>9115200</v>
       </c>
       <c r="H54" s="3">
-        <v>8658700</v>
+        <v>8863300</v>
       </c>
       <c r="I54" s="3">
-        <v>8645000</v>
+        <v>8817600</v>
       </c>
       <c r="J54" s="3">
+        <v>8803800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8387700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8079300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8234100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7946700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7228300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6988300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6603700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6345700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6772900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6759400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>70500</v>
+        <v>48100</v>
       </c>
       <c r="E57" s="3">
-        <v>63200</v>
+        <v>71800</v>
       </c>
       <c r="F57" s="3">
-        <v>58200</v>
+        <v>64400</v>
       </c>
       <c r="G57" s="3">
-        <v>54000</v>
+        <v>59300</v>
       </c>
       <c r="H57" s="3">
-        <v>47100</v>
+        <v>55000</v>
       </c>
       <c r="I57" s="3">
-        <v>49700</v>
+        <v>48000</v>
       </c>
       <c r="J57" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K57" s="3">
         <v>45400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5500</v>
+        <v>7200</v>
       </c>
       <c r="E59" s="3">
-        <v>4700</v>
+        <v>5600</v>
       </c>
       <c r="F59" s="3">
-        <v>9600</v>
+        <v>4800</v>
       </c>
       <c r="G59" s="3">
-        <v>16100</v>
+        <v>9800</v>
       </c>
       <c r="H59" s="3">
-        <v>10100</v>
+        <v>16400</v>
       </c>
       <c r="I59" s="3">
-        <v>9300</v>
+        <v>10300</v>
       </c>
       <c r="J59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K59" s="3">
         <v>13000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76000</v>
+        <v>55300</v>
       </c>
       <c r="E60" s="3">
-        <v>67900</v>
+        <v>77400</v>
       </c>
       <c r="F60" s="3">
-        <v>67800</v>
+        <v>69200</v>
       </c>
       <c r="G60" s="3">
-        <v>70100</v>
+        <v>69100</v>
       </c>
       <c r="H60" s="3">
-        <v>57300</v>
+        <v>71400</v>
       </c>
       <c r="I60" s="3">
-        <v>59000</v>
+        <v>58300</v>
       </c>
       <c r="J60" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K60" s="3">
         <v>58400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3271,66 +3414,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>105900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>314200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>231500</v>
+        <v>239900</v>
       </c>
       <c r="E62" s="3">
-        <v>222900</v>
+        <v>235800</v>
       </c>
       <c r="F62" s="3">
-        <v>214800</v>
+        <v>227000</v>
       </c>
       <c r="G62" s="3">
-        <v>189600</v>
+        <v>218700</v>
       </c>
       <c r="H62" s="3">
-        <v>191000</v>
+        <v>193100</v>
       </c>
       <c r="I62" s="3">
-        <v>204000</v>
+        <v>194500</v>
       </c>
       <c r="J62" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K62" s="3">
         <v>191100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>151700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>142100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>123900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>111100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>93900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>105700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>307600</v>
+        <v>295200</v>
       </c>
       <c r="E66" s="3">
-        <v>290800</v>
+        <v>313200</v>
       </c>
       <c r="F66" s="3">
-        <v>282600</v>
+        <v>296100</v>
       </c>
       <c r="G66" s="3">
-        <v>259700</v>
+        <v>287800</v>
       </c>
       <c r="H66" s="3">
-        <v>248300</v>
+        <v>264500</v>
       </c>
       <c r="I66" s="3">
-        <v>263000</v>
+        <v>252800</v>
       </c>
       <c r="J66" s="3">
+        <v>267800</v>
+      </c>
+      <c r="K66" s="3">
         <v>249500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>209900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>215100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>199200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>192700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>165700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>142500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>134100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>280100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>467500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1554500</v>
+        <v>1734100</v>
       </c>
       <c r="E72" s="3">
-        <v>1393200</v>
+        <v>1583100</v>
       </c>
       <c r="F72" s="3">
-        <v>1270200</v>
+        <v>1418800</v>
       </c>
       <c r="G72" s="3">
-        <v>1130400</v>
+        <v>1293500</v>
       </c>
       <c r="H72" s="3">
-        <v>1000600</v>
+        <v>1151200</v>
       </c>
       <c r="I72" s="3">
-        <v>817600</v>
+        <v>1019000</v>
       </c>
       <c r="J72" s="3">
+        <v>832600</v>
+      </c>
+      <c r="K72" s="3">
         <v>655000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>433800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>294400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>129700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-209400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-338700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-395300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-210900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-296900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9022000</v>
+        <v>9313900</v>
       </c>
       <c r="E76" s="3">
-        <v>8814100</v>
+        <v>9187700</v>
       </c>
       <c r="F76" s="3">
-        <v>8668300</v>
+        <v>8976000</v>
       </c>
       <c r="G76" s="3">
-        <v>8443800</v>
+        <v>8827400</v>
       </c>
       <c r="H76" s="3">
-        <v>8410400</v>
+        <v>8598800</v>
       </c>
       <c r="I76" s="3">
-        <v>8382000</v>
+        <v>8564800</v>
       </c>
       <c r="J76" s="3">
+        <v>8535900</v>
+      </c>
+      <c r="K76" s="3">
         <v>8138200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7869400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8019000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7747400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7035600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6822700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6461200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6211600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6492800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6291900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>249200</v>
+        <v>240900</v>
       </c>
       <c r="E81" s="3">
-        <v>211400</v>
+        <v>253800</v>
       </c>
       <c r="F81" s="3">
-        <v>222900</v>
+        <v>215300</v>
       </c>
       <c r="G81" s="3">
-        <v>212200</v>
+        <v>227000</v>
       </c>
       <c r="H81" s="3">
-        <v>265400</v>
+        <v>216100</v>
       </c>
       <c r="I81" s="3">
-        <v>245800</v>
+        <v>270300</v>
       </c>
       <c r="J81" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K81" s="3">
         <v>298400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>224100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>242400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>237100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>228400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>120300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-125900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>101400</v>
+        <v>93700</v>
       </c>
       <c r="E83" s="3">
-        <v>82400</v>
+        <v>103300</v>
       </c>
       <c r="F83" s="3">
-        <v>99300</v>
+        <v>83900</v>
       </c>
       <c r="G83" s="3">
-        <v>92500</v>
+        <v>101100</v>
       </c>
       <c r="H83" s="3">
-        <v>94000</v>
+        <v>94200</v>
       </c>
       <c r="I83" s="3">
-        <v>100800</v>
+        <v>95700</v>
       </c>
       <c r="J83" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K83" s="3">
         <v>105600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>98600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>98400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>87200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>353700</v>
+        <v>324600</v>
       </c>
       <c r="E89" s="3">
-        <v>283400</v>
+        <v>360200</v>
       </c>
       <c r="F89" s="3">
-        <v>377300</v>
+        <v>288600</v>
       </c>
       <c r="G89" s="3">
-        <v>313800</v>
+        <v>384200</v>
       </c>
       <c r="H89" s="3">
-        <v>347500</v>
+        <v>319500</v>
       </c>
       <c r="I89" s="3">
-        <v>311500</v>
+        <v>353900</v>
       </c>
       <c r="J89" s="3">
+        <v>317200</v>
+      </c>
+      <c r="K89" s="3">
         <v>376800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>279300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>339000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>310100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>318300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>276800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>191400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>248600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>236800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>218600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-109600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-125000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-500</v>
       </c>
       <c r="S91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-216900</v>
+        <v>-238900</v>
       </c>
       <c r="E94" s="3">
-        <v>-138600</v>
+        <v>-220900</v>
       </c>
       <c r="F94" s="3">
-        <v>-132600</v>
+        <v>-141100</v>
       </c>
       <c r="G94" s="3">
-        <v>-41700</v>
+        <v>-135100</v>
       </c>
       <c r="H94" s="3">
-        <v>-20000</v>
+        <v>-42500</v>
       </c>
       <c r="I94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-750900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-246700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-178200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-153400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-441900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-79200</v>
+        <v>-78100</v>
       </c>
       <c r="E96" s="3">
-        <v>-78100</v>
+        <v>-80600</v>
       </c>
       <c r="F96" s="3">
-        <v>-64800</v>
+        <v>-79500</v>
       </c>
       <c r="G96" s="3">
-        <v>-65100</v>
+        <v>-66000</v>
       </c>
       <c r="H96" s="3">
-        <v>-69300</v>
+        <v>-66300</v>
       </c>
       <c r="I96" s="3">
-        <v>-67700</v>
+        <v>-70600</v>
       </c>
       <c r="J96" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-62400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-62600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-62500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-57800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-51400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-51000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-46100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-45300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-42200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-76900</v>
+        <v>-78100</v>
       </c>
       <c r="E100" s="3">
-        <v>-76400</v>
+        <v>-78300</v>
       </c>
       <c r="F100" s="3">
-        <v>-59000</v>
+        <v>-77900</v>
       </c>
       <c r="G100" s="3">
-        <v>-66300</v>
+        <v>-60100</v>
       </c>
       <c r="H100" s="3">
-        <v>-65600</v>
+        <v>-67500</v>
       </c>
       <c r="I100" s="3">
-        <v>-64300</v>
+        <v>-66800</v>
       </c>
       <c r="J100" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-62300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-57900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>44300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-98700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-182900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-171700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>-8300</v>
       </c>
       <c r="J101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>63100</v>
+        <v>2800</v>
       </c>
       <c r="E102" s="3">
-        <v>70100</v>
+        <v>64200</v>
       </c>
       <c r="F102" s="3">
-        <v>187900</v>
+        <v>71400</v>
       </c>
       <c r="G102" s="3">
-        <v>198300</v>
+        <v>191300</v>
       </c>
       <c r="H102" s="3">
-        <v>253800</v>
+        <v>201900</v>
       </c>
       <c r="I102" s="3">
-        <v>247700</v>
+        <v>258500</v>
       </c>
       <c r="J102" s="3">
+        <v>252300</v>
+      </c>
+      <c r="K102" s="3">
         <v>260100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>201200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-471200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>215000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>99000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>51800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-394000</v>
       </c>
     </row>
